--- a/AAII_Financials/Quarterly/DIS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DIS_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>DIS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,216 +665,228 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E7" s="2">
         <v>43827</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43736</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43645</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43554</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43463</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43372</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43099</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42917</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42826</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>18009000</v>
+      </c>
+      <c r="E8" s="3">
         <v>20858000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>19100000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>20245000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>14922000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>15303000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>14307000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>15228000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14548000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15351000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12779000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14238000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>13336000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>14784000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>13142000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>11918000</v>
+      </c>
+      <c r="E9" s="3">
         <v>13016000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11822000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12819000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>8376000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9001000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8108000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8348000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7533000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8737000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7214000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7717000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6969000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8406000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7305000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6091000</v>
+      </c>
+      <c r="E10" s="3">
         <v>7842000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7278000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7426000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6546000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6302000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6199000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6880000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7015000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6614000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5565000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6521000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6367000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6378000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5837000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -892,8 +904,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -939,8 +952,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -986,44 +1002,47 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>145000</v>
+      </c>
+      <c r="E14" s="3">
         <v>150000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>825000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>515000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-3948000</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>5000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>13000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>15000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>98000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
@@ -1031,57 +1050,63 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1333000</v>
+      </c>
+      <c r="E15" s="3">
         <v>1298000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1296000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1304000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>828000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>732000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>794000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>744000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>731000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>742000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>708000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>711000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>676000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>687000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>689000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1096,102 +1121,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>16784000</v>
+      </c>
+      <c r="E17" s="3">
         <v>18167000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>17640000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>18000000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7583000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11885000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11229000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11304000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10524000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11573000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9993000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10627000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9586000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11078000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10312000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1225000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2691000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1460000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2245000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7339000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3418000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3078000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3924000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4024000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3778000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2786000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3611000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3750000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3706000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2830000</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1209,243 +1241,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>193000</v>
+      </c>
+      <c r="E20" s="3">
         <v>291000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>230000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>78000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>162000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>313000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>105000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>76000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>113000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>45000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>141000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>116000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>140000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2751000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4280000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2956000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3779000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>8245000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4312000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4185000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4773000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4831000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4633000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3539000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4463000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4542000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4533000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3689000</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>358000</v>
+      </c>
+      <c r="E22" s="3">
         <v>350000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>402000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>457000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>180000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>149000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>189000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>175000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>172000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>146000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>137000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>134000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>115000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>121000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1060000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2632000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1258000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2018000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>7237000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3431000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3202000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3854000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3928000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3745000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2694000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3618000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3751000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3725000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2881000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>525000</v>
+      </c>
+      <c r="E24" s="3">
         <v>459000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>344000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>395000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1647000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>679000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>683000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>895000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>913000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>872000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>829000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1144000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1212000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1237000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>989000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1491,102 +1539,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>535000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2173000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>914000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1623000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5590000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2752000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2519000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2959000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3015000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2873000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1865000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2474000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2539000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2488000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1892000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>475000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2133000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>785000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1437000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5431000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2754000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2422000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2816000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2837000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2823000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1747000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2366000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2388000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2479000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1632,40 +1689,43 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E29" s="3">
         <v>-26000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>269000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>323000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>21000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>34000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-100000</v>
-      </c>
-      <c r="J29" s="3">
-        <v>100000</v>
       </c>
       <c r="K29" s="3">
         <v>100000</v>
       </c>
       <c r="L29" s="3">
+        <v>100000</v>
+      </c>
+      <c r="M29" s="3">
         <v>1600000</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1679,8 +1739,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1726,8 +1789,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1773,102 +1839,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-193000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-291000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-230000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-78000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-162000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-313000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-105000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-76000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-113000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-45000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-141000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-116000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-140000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-170000</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>460000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2107000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1054000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1760000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5452000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2788000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2322000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2916000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2937000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4423000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1747000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2366000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2388000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2479000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1914,107 +1989,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>460000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2107000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1054000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1760000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5452000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2788000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2322000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2916000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2937000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4423000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1747000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2366000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2388000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2479000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E38" s="2">
         <v>43827</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43736</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43645</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43554</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43463</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43372</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43099</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42917</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42826</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2032,8 +2116,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2051,55 +2136,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14339000</v>
+      </c>
+      <c r="E41" s="3">
         <v>6833000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5418000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6728000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10208000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4455000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4150000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4326000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4179000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4677000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4017000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4336000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3800000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3736000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4610000</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2145,337 +2234,361 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>14532000</v>
+      </c>
+      <c r="E43" s="3">
         <v>17100000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>15481000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>15673000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>14593000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>10123000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>9334000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>10071000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9678000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9886000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8633000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9636000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>9293000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>9878000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9065000</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1531000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1571000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1649000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1516000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1445000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1357000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1392000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1322000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1301000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1307000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1373000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1300000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1304000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1299000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1390000</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2872000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2272000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5576000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7453000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8031000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1602000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1949000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2010000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1650000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1404000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1866000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1879000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1873000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1752000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1901000</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>33274000</v>
+      </c>
+      <c r="E46" s="3">
         <v>27776000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>28124000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>31370000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>34277000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>17537000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>16825000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>17729000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>16808000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>17274000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15889000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17151000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16270000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16665000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16966000</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3180000</v>
+      </c>
+      <c r="E47" s="3">
         <v>3312000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3224000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3872000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4080000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2970000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2899000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3155000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3148000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3206000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3202000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4141000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4187000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4259000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4280000</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>36715000</v>
+      </c>
+      <c r="E48" s="3">
         <v>35503000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>31603000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>31392000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>31017000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>29797000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>29540000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>29373000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>29200000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>28584000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>28406000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>27733000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>27399000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>27054000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>27349000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>129114000</v>
+      </c>
+      <c r="E49" s="3">
         <v>129522000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>126318000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>125467000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>126395000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>46213000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>45969000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>45882000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>46386000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>46297000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>45902000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>41430000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>41650000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>41257000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>41098000</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2521,8 +2634,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2568,55 +2684,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4011000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4835000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4715000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>17374000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>18573000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3424000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3365000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2653000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2401000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2373000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2390000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2297000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2301000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2341000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2340000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2662,55 +2784,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>206294000</v>
+      </c>
+      <c r="E54" s="3">
         <v>200948000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>193984000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>209475000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>214342000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>99941000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>98598000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>98792000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>97943000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>97734000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>95789000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>92752000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>91807000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>91576000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>92033000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2728,8 +2856,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2747,290 +2876,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>17048000</v>
+      </c>
+      <c r="E57" s="3">
         <v>18920000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>17762000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>17647000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>20503000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10696000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9479000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9763000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9022000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9574000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6490000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8987000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7678000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9616000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6860000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>12712000</v>
+      </c>
+      <c r="E58" s="3">
         <v>10047000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8857000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>21923000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>19158000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3489000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3790000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5992000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5918000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6009000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6172000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3338000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4865000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5698000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3687000</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5713000</v>
+      </c>
+      <c r="E59" s="3">
         <v>5830000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4722000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5023000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4715000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3434000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4591000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4459000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4788000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4292000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6933000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4769000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4822000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4003000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6295000</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>35473000</v>
+      </c>
+      <c r="E60" s="3">
         <v>34797000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>31341000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>44593000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>44376000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>17619000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>17860000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>20214000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>19728000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>19875000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>19595000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>17094000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>17365000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>19317000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>16842000</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>43052000</v>
+      </c>
+      <c r="E61" s="3">
         <v>38309000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>38129000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>36311000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>37803000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>17176000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>17084000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>17681000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>18766000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>20082000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>19119000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>18849000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>16788000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>14792000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>16483000</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>23796000</v>
+      </c>
+      <c r="E62" s="3">
         <v>24040000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>21662000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>23318000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>26721000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>9629000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>9699000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>9689000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9648000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9552000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10923000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>10758000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>10387000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>10290000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>11385000</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3076,8 +3224,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3123,8 +3274,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3170,55 +3324,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>115887000</v>
+      </c>
+      <c r="E66" s="3">
         <v>111191000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>105107000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>119003000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>124404000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>49625000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>49825000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>52704000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>52792000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>54445000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>54474000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>50221000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>48023000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>48366000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>48768000</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3236,8 +3396,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3283,8 +3444,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3330,8 +3494,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3377,8 +3544,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3424,55 +3594,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>43721000</v>
+      </c>
+      <c r="E72" s="3">
         <v>43202000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>42494000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>41382000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>41212000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>84887000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>82679000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>80364000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>78704000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>75763000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>72606000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>70863000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>69708000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>67327000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>66088000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3518,8 +3694,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3565,8 +3744,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3612,55 +3794,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>90407000</v>
+      </c>
+      <c r="E76" s="3">
         <v>89757000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>88877000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>90472000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>89938000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>50316000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>48773000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>46088000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>45151000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>43289000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>41315000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>42531000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>43784000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>43210000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>43265000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3706,107 +3894,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E80" s="2">
         <v>43827</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43736</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43645</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43554</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43463</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43372</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43099</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42917</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42826</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>460000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2107000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1054000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1760000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5452000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2788000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2322000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2916000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2937000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4423000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1747000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2366000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2388000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2479000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3824,55 +4021,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1333000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1298000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1296000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1304000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>828000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>732000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>794000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>744000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>731000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>742000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>708000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>711000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>676000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>687000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>689000</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3918,8 +4119,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3965,8 +4169,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4012,8 +4219,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4059,8 +4269,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4106,55 +4319,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3180000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1611000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2020000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1393000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3880000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2099000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3853000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3679000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4526000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2237000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3512000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4133000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3253000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1445000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3598000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4172,55 +4391,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1247000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1338000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1309000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1177000</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-1195000</v>
       </c>
       <c r="H91" s="3">
         <v>-1195000</v>
       </c>
       <c r="I91" s="3">
+        <v>-1195000</v>
+      </c>
+      <c r="J91" s="3">
         <v>-1201000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1220000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1063000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-981000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-895000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-805000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1766000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2080000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2164000</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4266,8 +4489,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4313,55 +4539,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1058000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1350000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>9667000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1102000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-11347000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1336000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-193000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1338000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2762000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1043000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-821000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-900000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1355000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1035000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1532000</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4379,8 +4611,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4388,11 +4621,11 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-1585000</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -4400,11 +4633,11 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-1249000</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -4412,11 +4645,11 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-1208000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -4424,10 +4657,13 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-1145000</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4473,8 +4709,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4520,8 +4759,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4567,145 +4809,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5499000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1117000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-13444000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-342000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>13107000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-411000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3862000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2099000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2298000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-584000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3167000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2743000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2062000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-987000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2900000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-117000</v>
+      </c>
+      <c r="E101" s="3">
         <v>41000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-145000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-28000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>119000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-44000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>26000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-106000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>34000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>21000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>54000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>46000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>43000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-112000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7504000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1419000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1902000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2865000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5759000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>308000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-176000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>136000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-500000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>631000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-422000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>536000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-121000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-689000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-617000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DIS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DIS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>DIS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,228 +665,240 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E7" s="2">
         <v>43918</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43827</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43736</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43645</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43554</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43463</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43372</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43099</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42917</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42826</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11779000</v>
+      </c>
+      <c r="E8" s="3">
         <v>18009000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>20858000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>19100000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>20245000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>14922000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>15303000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>14307000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15228000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14548000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15351000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12779000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14238000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>13336000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>14784000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>13142000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7896000</v>
+      </c>
+      <c r="E9" s="3">
         <v>11918000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>13016000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11822000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12819000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>8376000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9001000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8108000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8348000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7533000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8737000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7214000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7717000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6969000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8406000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7305000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3883000</v>
+      </c>
+      <c r="E10" s="3">
         <v>6091000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7842000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7278000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7426000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6546000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6302000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6199000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6880000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7015000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6614000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5565000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6521000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6367000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6378000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5837000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -905,8 +917,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -955,8 +968,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1005,47 +1021,50 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>5047000</v>
+      </c>
+      <c r="E14" s="3">
         <v>145000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>150000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>825000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>515000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-3948000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>5000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>13000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>15000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>98000</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
@@ -1053,60 +1072,66 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1377000</v>
+      </c>
+      <c r="E15" s="3">
         <v>1333000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1298000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1296000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1304000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>828000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>732000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>794000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>744000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>731000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>742000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>708000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>711000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>676000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>687000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>689000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1122,108 +1147,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>16775000</v>
+      </c>
+      <c r="E17" s="3">
         <v>16784000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>18167000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>17640000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>18000000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7583000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11885000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11229000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11304000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10524000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11573000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9993000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10627000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9586000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11078000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10312000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4996000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1225000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2691000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1460000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2245000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7339000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3418000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3078000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3924000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4024000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3778000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2786000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3611000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3750000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3706000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2830000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1242,258 +1274,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>623000</v>
+      </c>
+      <c r="E20" s="3">
         <v>193000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>291000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>230000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>78000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>162000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>313000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>105000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>76000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>113000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>45000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>141000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>116000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>140000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2994000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2751000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4280000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2956000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3779000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>8245000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4312000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4185000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4773000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4831000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4633000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3539000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4463000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4542000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4533000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3689000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>467000</v>
+      </c>
+      <c r="E22" s="3">
         <v>358000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>350000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>402000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>457000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>180000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>149000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>189000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>175000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>172000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>146000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>137000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>134000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>115000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>121000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4840000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1060000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2632000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1258000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2018000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>7237000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3431000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3202000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3854000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3928000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3745000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2694000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3618000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3751000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3725000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2881000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-331000</v>
+      </c>
+      <c r="E24" s="3">
         <v>525000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>459000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>344000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>395000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1647000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>679000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>683000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>895000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>913000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>872000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>829000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1144000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1212000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1237000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>989000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1542,108 +1590,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4509000</v>
+      </c>
+      <c r="E26" s="3">
         <v>535000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2173000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>914000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1623000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5590000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2752000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2519000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2959000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3015000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2873000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1865000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2474000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2539000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2488000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1892000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4718000</v>
+      </c>
+      <c r="E27" s="3">
         <v>475000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2133000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>785000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1437000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5431000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2754000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2422000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2816000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2837000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2823000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1747000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2366000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2388000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2479000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1692,43 +1749,46 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E29" s="3">
         <v>-15000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-26000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>269000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>323000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>21000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>34000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-100000</v>
-      </c>
-      <c r="K29" s="3">
-        <v>100000</v>
       </c>
       <c r="L29" s="3">
         <v>100000</v>
       </c>
       <c r="M29" s="3">
+        <v>100000</v>
+      </c>
+      <c r="N29" s="3">
         <v>1600000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1742,8 +1802,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1792,8 +1855,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1842,108 +1908,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-623000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-193000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-291000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-230000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-78000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-162000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-313000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-105000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-76000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-113000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-45000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-141000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-116000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-140000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-170000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4721000</v>
+      </c>
+      <c r="E33" s="3">
         <v>460000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2107000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1054000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1760000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5452000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2788000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2322000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2916000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2937000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4423000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1747000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2366000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2388000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2479000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1992,113 +2067,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4721000</v>
+      </c>
+      <c r="E35" s="3">
         <v>460000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2107000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1054000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1760000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5452000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2788000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2322000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2916000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2937000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4423000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1747000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2366000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2388000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2479000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E38" s="2">
         <v>43918</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43827</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43736</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43645</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43554</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43463</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43372</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43099</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42917</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42826</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2117,8 +2201,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2137,58 +2222,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23115000</v>
+      </c>
+      <c r="E41" s="3">
         <v>14339000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6833000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5418000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6728000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10208000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4455000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4150000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4326000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4179000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4677000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4017000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4336000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3800000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3736000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4610000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2237,358 +2326,382 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12622000</v>
+      </c>
+      <c r="E43" s="3">
         <v>14532000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>17100000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>15481000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>15673000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>14593000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>10123000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>9334000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10071000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9678000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9886000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8633000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>9636000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>9293000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9878000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9065000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1559000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1531000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1571000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1649000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1516000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1445000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1357000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1392000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1322000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1301000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1307000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1373000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1300000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1304000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1299000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1390000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4034000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2872000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2272000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5576000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7453000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8031000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1602000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1949000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2010000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1650000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1404000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1866000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1879000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1873000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1752000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1901000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>41330000</v>
+      </c>
+      <c r="E46" s="3">
         <v>33274000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>27776000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>28124000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>31370000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>34277000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>17537000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>16825000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>17729000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>16808000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>17274000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>15889000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>17151000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16270000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16665000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16966000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3611000</v>
+      </c>
+      <c r="E47" s="3">
         <v>3180000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3312000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3224000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3872000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4080000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2970000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2899000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3155000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3148000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3206000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3202000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4141000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4187000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4259000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4280000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>36137000</v>
+      </c>
+      <c r="E48" s="3">
         <v>36715000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>35503000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>31603000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>31392000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>31017000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>29797000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>29540000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>29373000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>29200000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>28584000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>28406000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>27733000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>27399000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>27054000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>27349000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>122382000</v>
+      </c>
+      <c r="E49" s="3">
         <v>129114000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>129522000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>126318000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>125467000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>126395000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>46213000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>45969000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>45882000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>46386000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>46297000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>45902000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>41430000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>41650000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>41257000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>41098000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2637,8 +2750,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2687,58 +2803,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4189000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4011000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4835000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4715000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>17374000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>18573000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3424000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3365000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2653000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2401000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2373000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2390000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2297000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2301000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2341000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2340000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2787,58 +2909,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>207649000</v>
+      </c>
+      <c r="E54" s="3">
         <v>206294000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>200948000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>193984000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>209475000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>214342000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>99941000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>98598000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>98792000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>97943000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>97734000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>95789000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>92752000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>91807000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>91576000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>92033000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2857,8 +2985,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2877,308 +3006,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>16144000</v>
+      </c>
+      <c r="E57" s="3">
         <v>17048000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>18920000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>17762000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>17647000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>20503000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10696000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9479000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9763000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9022000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9574000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6490000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8987000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7678000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9616000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6860000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10262000</v>
+      </c>
+      <c r="E58" s="3">
         <v>12712000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>10047000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>8857000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>21923000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>19158000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3489000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3790000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5992000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5918000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6009000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6172000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3338000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4865000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5698000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3687000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4511000</v>
+      </c>
+      <c r="E59" s="3">
         <v>5713000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5830000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4722000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5023000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4715000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3434000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4591000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4459000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4788000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4292000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6933000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4769000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4822000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4003000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6295000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>30917000</v>
+      </c>
+      <c r="E60" s="3">
         <v>35473000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>34797000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>31341000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>44593000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>44376000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>17619000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>17860000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>20214000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>19728000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>19875000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>19595000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>17094000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>17365000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>19317000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>16842000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>54468000</v>
+      </c>
+      <c r="E61" s="3">
         <v>43052000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>38309000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>38129000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>36311000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>37803000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>17176000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>17084000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>17681000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>18766000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>20082000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>19119000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>18849000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>16788000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>14792000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>16483000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>22639000</v>
+      </c>
+      <c r="E62" s="3">
         <v>23796000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>24040000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>21662000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>23318000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>26721000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>9629000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>9699000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9689000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9648000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9552000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>10923000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>10758000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>10387000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>10290000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>11385000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3227,8 +3375,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3277,8 +3428,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3327,58 +3481,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>121783000</v>
+      </c>
+      <c r="E66" s="3">
         <v>115887000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>111191000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>105107000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>119003000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>124404000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>49625000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>49825000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>52704000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>52792000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>54445000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>54474000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>50221000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>48023000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>48366000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>48768000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3397,8 +3557,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3447,8 +3608,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3497,8 +3661,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3547,8 +3714,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3597,58 +3767,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>39004000</v>
+      </c>
+      <c r="E72" s="3">
         <v>43721000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>43202000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>42494000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>41382000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>41212000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>84887000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>82679000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>80364000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>78704000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>75763000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>72606000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>70863000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>69708000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>67327000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>66088000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3697,8 +3873,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3747,8 +3926,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3797,58 +3979,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>85866000</v>
+      </c>
+      <c r="E76" s="3">
         <v>90407000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>89757000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>88877000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>90472000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>89938000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>50316000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>48773000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>46088000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>45151000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>43289000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>41315000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>42531000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>43784000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>43210000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>43265000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3897,113 +4085,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E80" s="2">
         <v>43918</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43827</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43736</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43645</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43554</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43463</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43372</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43099</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42917</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42826</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4721000</v>
+      </c>
+      <c r="E81" s="3">
         <v>460000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2107000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1054000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1760000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5452000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2788000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2322000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2916000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2937000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4423000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1747000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2366000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2388000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2479000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4022,58 +4219,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1379000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1333000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1298000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1296000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1304000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>828000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>732000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>794000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>744000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>731000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>742000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>708000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>711000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>676000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>687000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>689000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4122,8 +4323,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4172,8 +4376,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4222,8 +4429,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4272,8 +4482,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4322,58 +4535,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1160000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3180000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1611000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2020000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1393000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3880000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2099000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3853000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3679000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4526000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2237000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3512000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4133000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3253000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1445000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3598000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4392,58 +4611,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-708000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1247000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1338000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1309000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1177000</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-1195000</v>
       </c>
       <c r="I91" s="3">
         <v>-1195000</v>
       </c>
       <c r="J91" s="3">
+        <v>-1195000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1201000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1220000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1063000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-981000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-895000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-805000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1766000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2080000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2164000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4492,8 +4715,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4542,58 +4768,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-714000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1058000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1350000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>9667000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1102000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-11347000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1336000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-193000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1338000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2762000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1043000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-821000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-900000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1355000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1035000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1532000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4612,8 +4844,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4624,11 +4857,11 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-1585000</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -4636,11 +4869,11 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1249000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -4648,11 +4881,11 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1208000</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -4660,10 +4893,13 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-1145000</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4712,8 +4948,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4762,8 +5001,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4812,154 +5054,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>8303000</v>
+      </c>
+      <c r="E100" s="3">
         <v>5499000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1117000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-13444000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-342000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>13107000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-411000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3862000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2099000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2298000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-584000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3167000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2743000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2062000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-987000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2900000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-117000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>41000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-145000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-28000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>119000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-44000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>26000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-106000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>34000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>21000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>54000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>46000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>43000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-112000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8776000</v>
+      </c>
+      <c r="E102" s="3">
         <v>7504000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1419000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1902000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2865000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5759000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>308000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-176000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>136000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-500000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>631000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-422000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>536000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-121000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-689000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-617000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DIS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DIS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>DIS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,240 +665,252 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44009</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43918</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43827</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43736</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43645</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43554</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43463</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43372</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43099</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42917</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42826</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>14707000</v>
+      </c>
+      <c r="E8" s="3">
         <v>11779000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>18009000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>20858000</v>
       </c>
-      <c r="G8" s="3">
-        <v>19100000</v>
-      </c>
       <c r="H8" s="3">
+        <v>19137000</v>
+      </c>
+      <c r="I8" s="3">
         <v>20245000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>14922000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>15303000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14307000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15228000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14548000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>15351000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12779000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>14238000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>13336000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>14784000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>13142000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>11013000</v>
+      </c>
+      <c r="E9" s="3">
         <v>7896000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11918000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>13016000</v>
       </c>
-      <c r="G9" s="3">
-        <v>11822000</v>
-      </c>
       <c r="H9" s="3">
+        <v>11865000</v>
+      </c>
+      <c r="I9" s="3">
         <v>12819000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8376000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9001000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8108000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8348000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7533000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8737000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7214000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7717000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6969000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8406000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7305000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3694000</v>
+      </c>
+      <c r="E10" s="3">
         <v>3883000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6091000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7842000</v>
       </c>
-      <c r="G10" s="3">
-        <v>7278000</v>
-      </c>
       <c r="H10" s="3">
+        <v>7272000</v>
+      </c>
+      <c r="I10" s="3">
         <v>7426000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6546000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6302000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6199000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6880000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7015000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6614000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5565000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6521000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6367000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6378000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5837000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -918,8 +930,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -971,8 +984,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1024,50 +1040,53 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>393000</v>
+      </c>
+      <c r="E14" s="3">
         <v>5047000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>145000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>150000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>825000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>515000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-3948000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>5000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>13000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>15000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>98000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
@@ -1075,63 +1094,69 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1335000</v>
+      </c>
+      <c r="E15" s="3">
         <v>1377000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1333000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1298000</v>
       </c>
-      <c r="G15" s="3">
-        <v>1296000</v>
-      </c>
       <c r="H15" s="3">
+        <v>1303000</v>
+      </c>
+      <c r="I15" s="3">
         <v>1304000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>828000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>732000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>794000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>744000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>731000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>742000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>708000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>711000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>676000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>687000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>689000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1148,114 +1173,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15553000</v>
+      </c>
+      <c r="E17" s="3">
         <v>16775000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>16784000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>18167000</v>
       </c>
-      <c r="G17" s="3">
-        <v>17640000</v>
-      </c>
       <c r="H17" s="3">
+        <v>17698000</v>
+      </c>
+      <c r="I17" s="3">
         <v>18000000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7583000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11885000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11229000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11304000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10524000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11573000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9993000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10627000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9586000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>11078000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10312000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-846000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4996000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1225000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2691000</v>
       </c>
-      <c r="G18" s="3">
-        <v>1460000</v>
-      </c>
       <c r="H18" s="3">
+        <v>1439000</v>
+      </c>
+      <c r="I18" s="3">
         <v>2245000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7339000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3418000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3078000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3924000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4024000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3778000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2786000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3611000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3750000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3706000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2830000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1275,273 +1307,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>730000</v>
+      </c>
+      <c r="E20" s="3">
         <v>623000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>193000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>291000</v>
       </c>
-      <c r="G20" s="3">
-        <v>200000</v>
-      </c>
       <c r="H20" s="3">
+        <v>613000</v>
+      </c>
+      <c r="I20" s="3">
         <v>230000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>78000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>162000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>313000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>105000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>76000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>113000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>45000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>141000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>116000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>140000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1219000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2994000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2751000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4280000</v>
       </c>
-      <c r="G21" s="3">
-        <v>2956000</v>
-      </c>
       <c r="H21" s="3">
+        <v>3348000</v>
+      </c>
+      <c r="I21" s="3">
         <v>3779000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>8245000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4312000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4185000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4773000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4831000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4633000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3539000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4463000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4542000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4533000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3689000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>464000</v>
+      </c>
+      <c r="E22" s="3">
         <v>467000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>358000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>350000</v>
       </c>
-      <c r="G22" s="3">
-        <v>402000</v>
-      </c>
       <c r="H22" s="3">
+        <v>815000</v>
+      </c>
+      <c r="I22" s="3">
         <v>457000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>180000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>149000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>189000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>175000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>172000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>146000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>137000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>134000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>115000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>121000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-580000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4840000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1060000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2632000</v>
       </c>
-      <c r="G23" s="3">
-        <v>1258000</v>
-      </c>
       <c r="H23" s="3">
+        <v>1237000</v>
+      </c>
+      <c r="I23" s="3">
         <v>2018000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>7237000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3431000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3202000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3854000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3928000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3745000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2694000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3618000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3751000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3725000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2881000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-331000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>525000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>459000</v>
       </c>
-      <c r="G24" s="3">
-        <v>344000</v>
-      </c>
       <c r="H24" s="3">
+        <v>339000</v>
+      </c>
+      <c r="I24" s="3">
         <v>395000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1647000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>679000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>683000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>895000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>913000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>872000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>829000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1144000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1212000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1237000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>989000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1593,114 +1641,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-629000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4509000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>535000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2173000</v>
       </c>
-      <c r="G26" s="3">
-        <v>914000</v>
-      </c>
       <c r="H26" s="3">
+        <v>898000</v>
+      </c>
+      <c r="I26" s="3">
         <v>1623000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5590000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2752000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2519000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2959000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3015000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2873000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1865000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2474000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2539000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2488000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1892000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-710000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4718000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>475000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2133000</v>
       </c>
-      <c r="G27" s="3">
-        <v>785000</v>
-      </c>
       <c r="H27" s="3">
+        <v>769000</v>
+      </c>
+      <c r="I27" s="3">
         <v>1437000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5431000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2754000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2422000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2816000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2837000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2823000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1747000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2366000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2388000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2479000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1752,46 +1809,49 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>-3000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-15000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-26000</v>
       </c>
-      <c r="G29" s="3">
-        <v>269000</v>
-      </c>
       <c r="H29" s="3">
+        <v>285000</v>
+      </c>
+      <c r="I29" s="3">
         <v>323000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>21000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>34000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-100000</v>
-      </c>
-      <c r="L29" s="3">
-        <v>100000</v>
       </c>
       <c r="M29" s="3">
         <v>100000</v>
       </c>
       <c r="N29" s="3">
+        <v>100000</v>
+      </c>
+      <c r="O29" s="3">
         <v>1600000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1805,8 +1865,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1858,8 +1921,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1911,114 +1977,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-730000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-623000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-193000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-291000</v>
       </c>
-      <c r="G32" s="3">
-        <v>-200000</v>
-      </c>
       <c r="H32" s="3">
+        <v>-613000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-230000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-78000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-162000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-313000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-105000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-76000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-113000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-45000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-141000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-116000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-140000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-170000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-710000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4721000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>460000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2107000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1054000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1760000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5452000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2788000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2322000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2916000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2937000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4423000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1747000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2366000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2388000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2479000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2070,119 +2145,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-710000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4721000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>460000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2107000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1054000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1760000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5452000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2788000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2322000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2916000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2937000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4423000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1747000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2366000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2388000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2479000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44009</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43918</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43827</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43736</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43645</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43554</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43463</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43372</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43099</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42917</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42826</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2202,8 +2286,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2223,61 +2308,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17914000</v>
+      </c>
+      <c r="E41" s="3">
         <v>23115000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14339000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6833000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5418000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6728000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10208000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4455000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4150000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4326000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4179000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4677000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4017000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4336000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3800000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3736000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4610000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2329,379 +2418,403 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12708000</v>
+      </c>
+      <c r="E43" s="3">
         <v>12622000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>14532000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>17100000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>15481000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>15673000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>14593000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>10123000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9334000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10071000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9678000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9886000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8633000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>9636000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9293000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9878000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>9065000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1583000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1559000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1531000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1571000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1649000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1516000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1445000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1357000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1392000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1322000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1301000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1307000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1373000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1300000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1304000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1299000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1390000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3046000</v>
+      </c>
+      <c r="E45" s="3">
         <v>4034000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2872000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2272000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5576000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7453000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8031000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1602000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1949000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2010000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1650000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1404000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1866000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1879000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1873000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1752000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1901000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>35251000</v>
+      </c>
+      <c r="E46" s="3">
         <v>41330000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>33274000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>27776000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>28124000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>31370000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>34277000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>17537000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>16825000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>17729000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16808000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17274000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>15889000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>17151000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16270000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16665000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>16966000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3903000</v>
+      </c>
+      <c r="E47" s="3">
         <v>3611000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3180000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3312000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3224000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3872000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4080000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2970000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2899000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3155000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3148000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3206000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3202000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4141000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4187000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4259000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4280000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>36126000</v>
+      </c>
+      <c r="E48" s="3">
         <v>36137000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>36715000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>35503000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>31603000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>31392000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>31017000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>29797000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>29540000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>29373000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>29200000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>28584000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>28406000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>27733000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>27399000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>27054000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>27349000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>121884000</v>
+      </c>
+      <c r="E49" s="3">
         <v>122382000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>129114000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>129522000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>126318000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>125467000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>126395000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>46213000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>45969000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>45882000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>46386000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>46297000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>45902000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>41430000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>41650000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>41257000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>41098000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2753,8 +2866,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2806,61 +2922,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4385000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4189000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4011000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4835000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4715000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>17374000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>18573000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3424000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3365000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2653000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2401000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2373000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2390000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2297000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2301000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2341000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2340000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2912,61 +3034,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>201549000</v>
+      </c>
+      <c r="E54" s="3">
         <v>207649000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>206294000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>200948000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>193984000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>209475000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>214342000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>99941000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>98598000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>98792000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>97943000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>97734000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>95789000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>92752000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>91807000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>91576000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>92033000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2986,8 +3114,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3007,326 +3136,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>16017000</v>
+      </c>
+      <c r="E57" s="3">
         <v>16144000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>17048000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>18920000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>17762000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>17647000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>20503000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10696000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9479000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9763000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9022000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9574000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6490000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8987000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7678000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9616000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6860000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5748000</v>
+      </c>
+      <c r="E58" s="3">
         <v>10262000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>12712000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>10047000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>8857000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>21923000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>19158000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3489000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3790000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5992000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5918000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6009000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6172000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3338000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4865000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5698000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3687000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4863000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4511000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5713000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5830000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4722000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5023000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4715000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3434000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4591000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4459000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4788000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4292000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6933000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4769000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4822000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4003000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6295000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>26628000</v>
+      </c>
+      <c r="E60" s="3">
         <v>30917000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>35473000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>34797000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>31341000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>44593000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>44376000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>17619000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>17860000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>20214000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>19728000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>19875000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>19595000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>17094000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>17365000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>19317000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>16842000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>53188000</v>
+      </c>
+      <c r="E61" s="3">
         <v>54468000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>43052000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>38309000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>38129000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>36311000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>37803000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>17176000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>17084000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>17681000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>18766000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>20082000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>19119000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>18849000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>16788000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>14792000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>16483000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>24221000</v>
+      </c>
+      <c r="E62" s="3">
         <v>22639000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>23796000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>24040000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>21662000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>23318000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>26721000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>9629000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9699000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9689000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9648000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9552000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>10923000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>10758000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>10387000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>10290000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>11385000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3378,8 +3526,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3431,8 +3582,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3484,61 +3638,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>117966000</v>
+      </c>
+      <c r="E66" s="3">
         <v>121783000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>115887000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>111191000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>105107000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>119003000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>124404000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>49625000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>49825000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>52704000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>52792000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>54445000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>54474000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>50221000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>48023000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>48366000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>48768000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3558,8 +3718,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3611,8 +3772,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3664,8 +3828,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3717,8 +3884,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3770,61 +3940,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>38315000</v>
+      </c>
+      <c r="E72" s="3">
         <v>39004000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>43721000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>43202000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>42494000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>41382000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>41212000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>84887000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>82679000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>80364000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>78704000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>75763000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>72606000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>70863000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>69708000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>67327000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>66088000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3876,8 +4052,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3929,8 +4108,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3982,61 +4164,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>83583000</v>
+      </c>
+      <c r="E76" s="3">
         <v>85866000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>90407000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>89757000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>88877000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>90472000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>89938000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>50316000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>48773000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>46088000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>45151000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>43289000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>41315000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>42531000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>43784000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>43210000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>43265000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4088,119 +4276,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44009</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43918</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43827</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43736</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43645</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43554</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43463</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43372</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43099</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42917</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42826</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-710000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4721000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>460000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2107000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1054000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1760000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5452000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2788000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2322000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2916000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2937000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4423000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1747000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2366000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2388000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2479000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4220,61 +4417,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1335000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1379000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1333000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1298000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1296000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1304000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>828000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>732000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>794000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>744000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>731000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>742000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>708000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>711000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>676000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>687000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>689000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4326,8 +4527,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4379,8 +4583,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4432,8 +4639,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4485,8 +4695,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4538,61 +4751,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1667000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1160000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3180000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1611000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2020000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1393000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3880000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2099000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3853000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3679000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4526000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2237000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3512000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4133000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3253000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1445000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3598000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4612,61 +4831,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-729000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-708000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1247000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1338000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1309000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1177000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-1195000</v>
       </c>
       <c r="J91" s="3">
         <v>-1195000</v>
       </c>
       <c r="K91" s="3">
+        <v>-1195000</v>
+      </c>
+      <c r="L91" s="3">
         <v>-1201000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1220000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1063000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-981000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-895000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-805000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1766000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2080000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2164000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4718,8 +4941,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4771,61 +4997,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-515000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-714000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1058000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1350000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>9667000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1102000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-11347000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1336000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-193000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1338000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2762000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1043000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-821000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-900000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1355000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1035000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1532000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4845,8 +5077,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4860,11 +5093,11 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-1585000</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -4872,11 +5105,11 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-1249000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -4884,11 +5117,11 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-1208000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -4896,10 +5129,13 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-1145000</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4951,8 +5187,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5004,8 +5243,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5057,163 +5299,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6439000</v>
+      </c>
+      <c r="E100" s="3">
         <v>8303000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>5499000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1117000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-13444000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-342000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>13107000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-411000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3862000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2099000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2298000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-584000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3167000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2743000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2062000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-987000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2900000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E101" s="3">
         <v>27000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-117000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>41000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-145000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-28000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>119000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-44000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>26000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-106000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>34000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>21000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>54000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>46000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>43000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-112000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5200000</v>
+      </c>
+      <c r="E102" s="3">
         <v>8776000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7504000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1419000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1902000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2865000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5759000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>308000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-176000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>136000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-500000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>631000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-422000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>536000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-121000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-689000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-617000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DIS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DIS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>DIS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,252 +665,264 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E7" s="2">
         <v>44107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44009</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43918</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43827</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43736</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43645</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43554</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43463</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43372</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43099</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42917</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42826</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>16249000</v>
+      </c>
+      <c r="E8" s="3">
         <v>14707000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11779000</v>
       </c>
-      <c r="F8" s="3">
-        <v>18009000</v>
-      </c>
       <c r="G8" s="3">
-        <v>20858000</v>
+        <v>38902000</v>
       </c>
       <c r="H8" s="3">
+        <v>20877000</v>
+      </c>
+      <c r="I8" s="3">
         <v>19137000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>20245000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>14922000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15303000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14307000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15228000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14548000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>15351000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12779000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>14238000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>13336000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>14784000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>13142000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>11775000</v>
+      </c>
+      <c r="E9" s="3">
         <v>11013000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7896000</v>
       </c>
-      <c r="F9" s="3">
-        <v>11918000</v>
-      </c>
       <c r="G9" s="3">
-        <v>13016000</v>
+        <v>24971000</v>
       </c>
       <c r="H9" s="3">
+        <v>13034000</v>
+      </c>
+      <c r="I9" s="3">
         <v>11865000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>12819000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8376000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9001000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8108000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8348000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7533000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8737000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7214000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7717000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6969000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8406000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7305000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4474000</v>
+      </c>
+      <c r="E10" s="3">
         <v>3694000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3883000</v>
       </c>
-      <c r="F10" s="3">
-        <v>6091000</v>
-      </c>
       <c r="G10" s="3">
-        <v>7842000</v>
+        <v>13931000</v>
       </c>
       <c r="H10" s="3">
+        <v>7843000</v>
+      </c>
+      <c r="I10" s="3">
         <v>7272000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7426000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6546000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6302000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6199000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6880000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7015000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6614000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5565000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6521000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6367000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6378000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5837000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -931,8 +943,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -987,8 +1000,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1043,53 +1059,56 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>113000</v>
+      </c>
+      <c r="E14" s="3">
         <v>393000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5047000</v>
       </c>
-      <c r="F14" s="3">
-        <v>145000</v>
-      </c>
       <c r="G14" s="3">
+        <v>440000</v>
+      </c>
+      <c r="H14" s="3">
         <v>150000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>825000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>515000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-3948000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>5000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>13000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>15000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>98000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
@@ -1097,66 +1116,72 @@
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1298000</v>
+      </c>
+      <c r="E15" s="3">
         <v>1335000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1377000</v>
       </c>
-      <c r="F15" s="3">
-        <v>1333000</v>
-      </c>
       <c r="G15" s="3">
-        <v>1298000</v>
+        <v>2633000</v>
       </c>
       <c r="H15" s="3">
+        <v>1299000</v>
+      </c>
+      <c r="I15" s="3">
         <v>1303000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1304000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>828000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>732000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>794000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>744000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>731000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>742000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>708000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>711000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>676000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>687000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>689000</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1174,120 +1199,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>16103000</v>
+      </c>
+      <c r="E17" s="3">
         <v>15553000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>16775000</v>
       </c>
-      <c r="F17" s="3">
-        <v>16784000</v>
-      </c>
       <c r="G17" s="3">
-        <v>18167000</v>
+        <v>35001000</v>
       </c>
       <c r="H17" s="3">
+        <v>18192000</v>
+      </c>
+      <c r="I17" s="3">
         <v>17698000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>18000000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7583000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11885000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11229000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11304000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10524000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11573000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9993000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10627000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9586000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>11078000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10312000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>146000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-846000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4996000</v>
       </c>
-      <c r="F18" s="3">
-        <v>1225000</v>
-      </c>
       <c r="G18" s="3">
-        <v>2691000</v>
+        <v>3901000</v>
       </c>
       <c r="H18" s="3">
+        <v>2685000</v>
+      </c>
+      <c r="I18" s="3">
         <v>1439000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2245000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7339000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3418000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3078000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3924000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4024000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3778000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2786000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3611000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3750000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3706000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2830000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1308,288 +1340,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>304000</v>
+      </c>
+      <c r="E20" s="3">
         <v>730000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>623000</v>
       </c>
-      <c r="F20" s="3">
-        <v>193000</v>
-      </c>
       <c r="G20" s="3">
-        <v>291000</v>
+        <v>484000</v>
       </c>
       <c r="H20" s="3">
+        <v>653000</v>
+      </c>
+      <c r="I20" s="3">
         <v>613000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>230000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>78000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>162000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>313000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>105000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>76000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>113000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>45000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>141000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>116000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>140000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1748000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1219000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2994000</v>
       </c>
-      <c r="F21" s="3">
-        <v>2751000</v>
-      </c>
       <c r="G21" s="3">
-        <v>4280000</v>
+        <v>7016000</v>
       </c>
       <c r="H21" s="3">
+        <v>4636000</v>
+      </c>
+      <c r="I21" s="3">
         <v>3348000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3779000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>8245000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4312000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4185000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4773000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4831000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4633000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3539000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4463000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4542000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4533000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3689000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>404000</v>
+      </c>
+      <c r="E22" s="3">
         <v>464000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>467000</v>
       </c>
-      <c r="F22" s="3">
-        <v>358000</v>
-      </c>
       <c r="G22" s="3">
-        <v>350000</v>
+        <v>708000</v>
       </c>
       <c r="H22" s="3">
+        <v>712000</v>
+      </c>
+      <c r="I22" s="3">
         <v>815000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>457000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>180000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>149000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>189000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>175000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>172000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>146000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>137000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>134000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>115000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>121000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-580000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4840000</v>
       </c>
-      <c r="F23" s="3">
-        <v>1060000</v>
-      </c>
       <c r="G23" s="3">
-        <v>2632000</v>
+        <v>3677000</v>
       </c>
       <c r="H23" s="3">
+        <v>2626000</v>
+      </c>
+      <c r="I23" s="3">
         <v>1237000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2018000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>7237000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3431000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3202000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3854000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3928000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3745000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2694000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3618000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3751000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3725000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2881000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E24" s="3">
         <v>49000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-331000</v>
       </c>
-      <c r="F24" s="3">
-        <v>525000</v>
-      </c>
       <c r="G24" s="3">
-        <v>459000</v>
+        <v>981000</v>
       </c>
       <c r="H24" s="3">
+        <v>458000</v>
+      </c>
+      <c r="I24" s="3">
         <v>339000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>395000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1647000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>679000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>683000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>895000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>913000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>872000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>829000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1144000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1212000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1237000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>989000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1644,120 +1692,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-629000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4509000</v>
       </c>
-      <c r="F26" s="3">
-        <v>535000</v>
-      </c>
       <c r="G26" s="3">
-        <v>2173000</v>
+        <v>2696000</v>
       </c>
       <c r="H26" s="3">
+        <v>2168000</v>
+      </c>
+      <c r="I26" s="3">
         <v>898000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1623000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5590000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2752000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2519000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2959000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3015000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2873000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1865000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2474000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2539000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2488000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1892000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-710000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4718000</v>
       </c>
-      <c r="F27" s="3">
-        <v>475000</v>
-      </c>
       <c r="G27" s="3">
-        <v>2133000</v>
+        <v>2596000</v>
       </c>
       <c r="H27" s="3">
+        <v>2128000</v>
+      </c>
+      <c r="I27" s="3">
         <v>769000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1437000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5431000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2754000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2422000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2816000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2837000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2823000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1747000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2366000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2388000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2479000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1812,49 +1869,52 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-12000</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-3000</v>
       </c>
-      <c r="F29" s="3">
-        <v>-15000</v>
-      </c>
       <c r="G29" s="3">
-        <v>-26000</v>
+        <v>-29000</v>
       </c>
       <c r="H29" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="I29" s="3">
         <v>285000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>323000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>21000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>34000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-100000</v>
-      </c>
-      <c r="M29" s="3">
-        <v>100000</v>
       </c>
       <c r="N29" s="3">
         <v>100000</v>
       </c>
       <c r="O29" s="3">
+        <v>100000</v>
+      </c>
+      <c r="P29" s="3">
         <v>1600000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1868,8 +1928,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1924,8 +1987,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1980,120 +2046,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-304000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-730000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-623000</v>
       </c>
-      <c r="F32" s="3">
-        <v>-193000</v>
-      </c>
       <c r="G32" s="3">
-        <v>-291000</v>
+        <v>-484000</v>
       </c>
       <c r="H32" s="3">
+        <v>-653000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-613000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-230000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-78000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-162000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-313000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-105000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-76000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-113000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-45000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-141000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-116000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-140000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-170000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-710000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4721000</v>
       </c>
-      <c r="F33" s="3">
-        <v>460000</v>
-      </c>
       <c r="G33" s="3">
+        <v>2567000</v>
+      </c>
+      <c r="H33" s="3">
         <v>2107000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1054000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1760000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5452000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2788000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2322000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2916000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2937000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4423000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1747000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2366000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2388000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2479000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2148,125 +2223,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-710000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4721000</v>
       </c>
-      <c r="F35" s="3">
-        <v>460000</v>
-      </c>
       <c r="G35" s="3">
+        <v>2567000</v>
+      </c>
+      <c r="H35" s="3">
         <v>2107000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1054000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1760000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5452000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2788000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2322000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2916000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2937000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4423000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1747000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2366000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2388000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2479000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E38" s="2">
         <v>44107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44009</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43918</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43827</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43736</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43645</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43554</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43463</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43372</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43099</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42917</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42826</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2287,8 +2371,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2309,64 +2394,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17068000</v>
+      </c>
+      <c r="E41" s="3">
         <v>17914000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>23115000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>14339000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6833000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5418000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6728000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10208000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4455000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4150000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4326000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4179000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4677000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4017000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4336000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3800000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3736000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4610000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2421,400 +2510,424 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>14051000</v>
+      </c>
+      <c r="E43" s="3">
         <v>12708000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>12622000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>14532000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>17100000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>15481000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>15673000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>14593000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10123000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9334000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>10071000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9678000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>9886000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8633000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9636000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9293000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>9878000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>9065000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1480000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1583000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1559000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1531000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1571000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1649000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1516000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1445000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1357000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1392000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1322000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1301000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1307000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1373000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1300000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1304000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1299000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1390000</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2275000</v>
+      </c>
+      <c r="E45" s="3">
         <v>3046000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4034000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2872000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2272000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5576000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7453000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8031000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1602000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1949000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2010000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1650000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1404000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1866000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1879000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1873000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1752000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1901000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>34874000</v>
+      </c>
+      <c r="E46" s="3">
         <v>35251000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>41330000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>33274000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>27776000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>28124000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>31370000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>34277000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>17537000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>16825000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>17729000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16808000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>17274000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>15889000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>17151000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16270000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>16665000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>16966000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4037000</v>
+      </c>
+      <c r="E47" s="3">
         <v>3903000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3611000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3180000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3312000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3224000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3872000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4080000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2970000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2899000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3155000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3148000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3206000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3202000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4141000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4187000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4259000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>4280000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>32263000</v>
+      </c>
+      <c r="E48" s="3">
         <v>36126000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>36137000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>36715000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>35503000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>31603000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>31392000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>31017000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>29797000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>29540000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>29373000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>29200000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>28584000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>28406000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>27733000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>27399000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>27054000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>27349000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>122371000</v>
+      </c>
+      <c r="E49" s="3">
         <v>121884000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>122382000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>129114000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>129522000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>126318000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>125467000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>126395000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>46213000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>45969000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>45882000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>46386000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>46297000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>45902000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>41430000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>41650000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>41257000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>41098000</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2869,8 +2982,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2925,64 +3041,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8343000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4385000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4189000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4011000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4835000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4715000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>17374000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>18573000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3424000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3365000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2653000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2401000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2373000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2390000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2297000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2301000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2341000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2340000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3037,64 +3159,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>201888000</v>
+      </c>
+      <c r="E54" s="3">
         <v>201549000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>207649000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>206294000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>200948000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>193984000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>209475000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>214342000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>99941000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>98598000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>98792000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>97943000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>97734000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>95789000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>92752000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>91807000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>91576000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>92033000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3115,8 +3243,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3137,344 +3266,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>16846000</v>
+      </c>
+      <c r="E57" s="3">
         <v>16017000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>16144000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>17048000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>18920000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>17762000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>17647000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>20503000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10696000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9479000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9763000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9022000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9574000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6490000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8987000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7678000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>9616000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>6860000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5397000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5748000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>10262000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>12712000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>10047000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>8857000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>21923000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>19158000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3489000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3790000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5992000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5918000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6009000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6172000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3338000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4865000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5698000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3687000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4303000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4863000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4511000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5713000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5830000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4722000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5023000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4715000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3434000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4591000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4459000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4788000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4292000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6933000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4769000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4822000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4003000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6295000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>26546000</v>
+      </c>
+      <c r="E60" s="3">
         <v>26628000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>30917000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>35473000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>34797000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>31341000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>44593000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>44376000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>17619000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>17860000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>20214000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>19728000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>19875000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>19595000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>17094000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>17365000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>19317000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>16842000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>52878000</v>
+      </c>
+      <c r="E61" s="3">
         <v>53188000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>54468000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>43052000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>38309000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>38129000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>36311000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>37803000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>17176000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>17084000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>17681000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>18766000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>20082000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>19119000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>18849000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>16788000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>14792000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>16483000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>24406000</v>
+      </c>
+      <c r="E62" s="3">
         <v>24221000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>22639000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>23796000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>24040000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>21662000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>23318000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>26721000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9629000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9699000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9689000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9648000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>9552000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>10923000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>10758000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>10387000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>10290000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>11385000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3529,8 +3677,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3585,8 +3736,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3641,64 +3795,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>117817000</v>
+      </c>
+      <c r="E66" s="3">
         <v>117966000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>121783000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>115887000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>111191000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>105107000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>119003000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>124404000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>49625000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>49825000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>52704000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>52792000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>54445000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>54474000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>50221000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>48023000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>48366000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>48768000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3719,8 +3879,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3775,8 +3936,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3831,8 +3995,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3887,8 +4054,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3943,64 +4113,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>38456000</v>
+      </c>
+      <c r="E72" s="3">
         <v>38315000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>39004000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>43721000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>43202000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>42494000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>41382000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>41212000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>84887000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>82679000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>80364000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>78704000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>75763000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>72606000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>70863000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>69708000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>67327000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>66088000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4055,8 +4231,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4111,8 +4290,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4167,64 +4349,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>84071000</v>
+      </c>
+      <c r="E76" s="3">
         <v>83583000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>85866000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>90407000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>89757000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>88877000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>90472000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>89938000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>50316000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>48773000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>46088000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>45151000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>43289000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>41315000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>42531000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>43784000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>43210000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>43265000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4279,125 +4467,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E80" s="2">
         <v>44107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44009</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43918</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43827</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43736</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43645</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43554</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43463</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43372</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43099</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42917</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42826</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-710000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4721000</v>
       </c>
-      <c r="F81" s="3">
-        <v>460000</v>
-      </c>
       <c r="G81" s="3">
+        <v>2567000</v>
+      </c>
+      <c r="H81" s="3">
         <v>2107000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1054000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1760000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5452000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2788000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2322000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2916000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2937000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4423000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1747000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2366000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2388000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2479000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4418,64 +4615,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1298000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1335000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1379000</v>
       </c>
-      <c r="F83" s="3">
-        <v>1333000</v>
-      </c>
       <c r="G83" s="3">
+        <v>2631000</v>
+      </c>
+      <c r="H83" s="3">
         <v>1298000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1296000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1304000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>828000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>732000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>794000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>744000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>731000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>742000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>708000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>711000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>676000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>687000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>689000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4530,8 +4731,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4586,8 +4790,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4642,8 +4849,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4698,8 +4908,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4754,64 +4967,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>84000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1667000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1160000</v>
       </c>
-      <c r="F89" s="3">
-        <v>3180000</v>
-      </c>
       <c r="G89" s="3">
+        <v>4791000</v>
+      </c>
+      <c r="H89" s="3">
         <v>1611000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2020000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1393000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3880000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2099000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3853000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3679000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4526000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2237000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3512000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4133000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3253000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1445000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3598000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4832,64 +5051,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-760000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-729000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-708000</v>
       </c>
-      <c r="F91" s="3">
-        <v>-1247000</v>
-      </c>
       <c r="G91" s="3">
+        <v>-2585000</v>
+      </c>
+      <c r="H91" s="3">
         <v>-1338000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1309000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1177000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-1195000</v>
       </c>
       <c r="K91" s="3">
         <v>-1195000</v>
       </c>
       <c r="L91" s="3">
+        <v>-1195000</v>
+      </c>
+      <c r="M91" s="3">
         <v>-1201000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1220000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1063000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-981000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-895000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-805000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1766000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2080000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2164000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4944,8 +5167,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5000,64 +5226,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-732000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-515000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-714000</v>
       </c>
-      <c r="F94" s="3">
-        <v>-1058000</v>
-      </c>
       <c r="G94" s="3">
+        <v>-2408000</v>
+      </c>
+      <c r="H94" s="3">
         <v>-1350000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>9667000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1102000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-11347000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1336000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-193000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1338000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2762000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1043000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-821000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-900000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1355000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1035000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1532000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5078,8 +5310,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5093,14 +5326,14 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-1587000</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-1585000</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -5108,11 +5341,11 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-1249000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -5120,11 +5353,11 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1208000</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -5132,10 +5365,13 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-1145000</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5190,8 +5426,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5246,8 +5485,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5302,172 +5544,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-333000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-6439000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>8303000</v>
       </c>
-      <c r="F100" s="3">
-        <v>5499000</v>
-      </c>
       <c r="G100" s="3">
+        <v>6616000</v>
+      </c>
+      <c r="H100" s="3">
         <v>1117000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-13444000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-342000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>13107000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-411000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3862000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2099000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2298000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-584000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3167000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2743000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2062000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-987000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2900000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>139000</v>
+      </c>
+      <c r="E101" s="3">
         <v>87000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>27000</v>
       </c>
-      <c r="F101" s="3">
-        <v>-117000</v>
-      </c>
       <c r="G101" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="H101" s="3">
         <v>41000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-145000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-28000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>119000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-44000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>26000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-106000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>34000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>21000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>54000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>46000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>43000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-112000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-842000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5200000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>8776000</v>
       </c>
-      <c r="F102" s="3">
-        <v>7504000</v>
-      </c>
       <c r="G102" s="3">
+        <v>8923000</v>
+      </c>
+      <c r="H102" s="3">
         <v>1419000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1902000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2865000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5759000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>308000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-176000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>136000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-500000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>631000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-422000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>536000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-121000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-689000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-617000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DIS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DIS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>DIS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,264 +665,276 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E7" s="2">
         <v>44198</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44107</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44009</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43918</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43827</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43736</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43645</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43554</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43463</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43372</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43099</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42917</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42826</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>15613000</v>
+      </c>
+      <c r="E8" s="3">
         <v>16249000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>14707000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11779000</v>
       </c>
-      <c r="G8" s="3">
-        <v>38902000</v>
-      </c>
       <c r="H8" s="3">
+        <v>18025000</v>
+      </c>
+      <c r="I8" s="3">
         <v>20877000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>19137000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>20245000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14922000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15303000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14307000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>15228000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14548000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>15351000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12779000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>14238000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>13336000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>14784000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>13142000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>9782000</v>
+      </c>
+      <c r="E9" s="3">
         <v>11775000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11013000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7896000</v>
       </c>
-      <c r="G9" s="3">
-        <v>24971000</v>
-      </c>
       <c r="H9" s="3">
+        <v>11937000</v>
+      </c>
+      <c r="I9" s="3">
         <v>13034000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11865000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12819000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8376000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9001000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8108000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8348000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7533000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8737000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7214000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7717000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6969000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8406000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7305000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5831000</v>
+      </c>
+      <c r="E10" s="3">
         <v>4474000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3694000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3883000</v>
       </c>
-      <c r="G10" s="3">
-        <v>13931000</v>
-      </c>
       <c r="H10" s="3">
+        <v>6088000</v>
+      </c>
+      <c r="I10" s="3">
         <v>7843000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7272000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7426000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6546000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6302000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6199000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6880000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7015000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6614000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5565000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6521000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6367000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6378000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5837000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -944,8 +956,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1003,8 +1016,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1062,56 +1078,59 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>414000</v>
+      </c>
+      <c r="E14" s="3">
         <v>113000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>393000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5047000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>440000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>150000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>825000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>515000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-3948000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>5000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>13000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>15000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>98000</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
@@ -1119,69 +1138,75 @@
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1272000</v>
+      </c>
+      <c r="E15" s="3">
         <v>1298000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1335000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1377000</v>
       </c>
-      <c r="G15" s="3">
-        <v>2633000</v>
-      </c>
       <c r="H15" s="3">
+        <v>1334000</v>
+      </c>
+      <c r="I15" s="3">
         <v>1299000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1303000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1304000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>828000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>732000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>794000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>744000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>731000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>742000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>708000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>711000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>676000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>687000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>689000</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1200,126 +1225,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14276000</v>
+      </c>
+      <c r="E17" s="3">
         <v>16103000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15553000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>16775000</v>
       </c>
-      <c r="G17" s="3">
-        <v>35001000</v>
-      </c>
       <c r="H17" s="3">
+        <v>16809000</v>
+      </c>
+      <c r="I17" s="3">
         <v>18192000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>17698000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>18000000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7583000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11885000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11229000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11304000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10524000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11573000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9993000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10627000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9586000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>11078000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10312000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1337000</v>
+      </c>
+      <c r="E18" s="3">
         <v>146000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-846000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4996000</v>
       </c>
-      <c r="G18" s="3">
-        <v>3901000</v>
-      </c>
       <c r="H18" s="3">
+        <v>1216000</v>
+      </c>
+      <c r="I18" s="3">
         <v>2685000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1439000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2245000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7339000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3418000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3078000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3924000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4024000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3778000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2786000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3611000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3750000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3706000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2830000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1341,303 +1373,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>308000</v>
+      </c>
+      <c r="E20" s="3">
         <v>304000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>730000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>623000</v>
       </c>
-      <c r="G20" s="3">
-        <v>484000</v>
-      </c>
       <c r="H20" s="3">
+        <v>908000</v>
+      </c>
+      <c r="I20" s="3">
         <v>653000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>613000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>230000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>78000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>162000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>313000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>105000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>76000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>113000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>45000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>141000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>116000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>140000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2917000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1748000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1219000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2994000</v>
       </c>
-      <c r="G21" s="3">
-        <v>7016000</v>
-      </c>
       <c r="H21" s="3">
+        <v>3457000</v>
+      </c>
+      <c r="I21" s="3">
         <v>4636000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3348000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3779000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8245000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4312000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4185000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4773000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4831000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4633000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3539000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4463000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4542000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4533000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3689000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>415000</v>
+      </c>
+      <c r="E22" s="3">
         <v>404000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>464000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>467000</v>
       </c>
-      <c r="G22" s="3">
-        <v>708000</v>
-      </c>
       <c r="H22" s="3">
+        <v>1073000</v>
+      </c>
+      <c r="I22" s="3">
         <v>712000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>815000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>457000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>180000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>149000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>189000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>175000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>172000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>146000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>137000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>134000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>115000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>121000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1230000</v>
+      </c>
+      <c r="E23" s="3">
         <v>46000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-580000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4840000</v>
       </c>
-      <c r="G23" s="3">
-        <v>3677000</v>
-      </c>
       <c r="H23" s="3">
+        <v>1051000</v>
+      </c>
+      <c r="I23" s="3">
         <v>2626000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1237000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2018000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7237000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3431000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3202000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3854000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3928000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3745000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2694000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3618000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3751000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3725000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2881000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>108000</v>
+      </c>
+      <c r="E24" s="3">
         <v>16000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>49000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-331000</v>
       </c>
-      <c r="G24" s="3">
-        <v>981000</v>
-      </c>
       <c r="H24" s="3">
+        <v>523000</v>
+      </c>
+      <c r="I24" s="3">
         <v>458000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>339000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>395000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1647000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>679000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>683000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>895000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>913000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>872000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>829000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1144000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1212000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1237000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>989000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1695,126 +1743,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1122000</v>
+      </c>
+      <c r="E26" s="3">
         <v>30000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-629000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4509000</v>
       </c>
-      <c r="G26" s="3">
-        <v>2696000</v>
-      </c>
       <c r="H26" s="3">
+        <v>528000</v>
+      </c>
+      <c r="I26" s="3">
         <v>2168000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>898000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1623000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5590000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2752000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2519000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2959000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3015000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2873000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1865000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2474000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2539000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2488000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1892000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>912000</v>
+      </c>
+      <c r="E27" s="3">
         <v>29000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-710000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4718000</v>
       </c>
-      <c r="G27" s="3">
-        <v>2596000</v>
-      </c>
       <c r="H27" s="3">
+        <v>468000</v>
+      </c>
+      <c r="I27" s="3">
         <v>2128000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>769000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1437000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5431000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2754000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2422000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2816000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2837000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2823000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1747000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2366000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2388000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2479000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1872,52 +1929,55 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E29" s="3">
         <v>-12000</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-3000</v>
       </c>
-      <c r="G29" s="3">
-        <v>-29000</v>
-      </c>
       <c r="H29" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="I29" s="3">
         <v>-21000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>285000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>323000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>21000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>34000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-100000</v>
-      </c>
-      <c r="N29" s="3">
-        <v>100000</v>
       </c>
       <c r="O29" s="3">
         <v>100000</v>
       </c>
       <c r="P29" s="3">
+        <v>100000</v>
+      </c>
+      <c r="Q29" s="3">
         <v>1600000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1931,8 +1991,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1990,8 +2053,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2049,126 +2115,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-308000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-304000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-730000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-623000</v>
       </c>
-      <c r="G32" s="3">
-        <v>-484000</v>
-      </c>
       <c r="H32" s="3">
+        <v>-908000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-653000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-613000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-230000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-78000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-162000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-313000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-105000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-76000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-113000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-45000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-141000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-116000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-140000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-170000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>901000</v>
+      </c>
+      <c r="E33" s="3">
         <v>17000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-710000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4721000</v>
       </c>
-      <c r="G33" s="3">
-        <v>2567000</v>
-      </c>
       <c r="H33" s="3">
+        <v>460000</v>
+      </c>
+      <c r="I33" s="3">
         <v>2107000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1054000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1760000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5452000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2788000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2322000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2916000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2937000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4423000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1747000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2366000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2388000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2479000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2226,131 +2301,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>901000</v>
+      </c>
+      <c r="E35" s="3">
         <v>17000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-710000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4721000</v>
       </c>
-      <c r="G35" s="3">
-        <v>2567000</v>
-      </c>
       <c r="H35" s="3">
+        <v>460000</v>
+      </c>
+      <c r="I35" s="3">
         <v>2107000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1054000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1760000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5452000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2788000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2322000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2916000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2937000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4423000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1747000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2366000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2388000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2479000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E38" s="2">
         <v>44198</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44107</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44009</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43918</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43827</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43736</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43645</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43554</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43463</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43372</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43099</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42917</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42826</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2372,8 +2456,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2395,67 +2480,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15890000</v>
+      </c>
+      <c r="E41" s="3">
         <v>17068000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>17914000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>23115000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14339000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6833000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5418000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6728000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10208000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4455000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4150000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4326000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4179000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4677000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4017000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4336000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3800000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3736000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4610000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2513,421 +2602,445 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12533000</v>
+      </c>
+      <c r="E43" s="3">
         <v>14051000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>12708000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12622000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>14532000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>17100000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>15481000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>15673000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>14593000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10123000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9334000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>10071000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>9678000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>9886000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8633000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9636000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>9293000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>9878000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>9065000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1406000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1480000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1583000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1559000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1531000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1571000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1649000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1516000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1445000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1357000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1392000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1322000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1301000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1307000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1373000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1300000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1304000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1299000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1390000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3048000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2275000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3046000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4034000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2872000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2272000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5576000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7453000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8031000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1602000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1949000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2010000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1650000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1404000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1866000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1879000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1873000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1752000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1901000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>32877000</v>
+      </c>
+      <c r="E46" s="3">
         <v>34874000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>35251000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>41330000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>33274000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>27776000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>28124000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>31370000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>34277000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>17537000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16825000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17729000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16808000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>17274000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>15889000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>17151000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>16270000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>16665000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>16966000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4309000</v>
+      </c>
+      <c r="E47" s="3">
         <v>4037000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3903000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3611000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3180000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3312000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3224000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3872000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4080000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2970000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2899000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3155000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3148000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3206000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3202000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4141000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4187000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>4259000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>4280000</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>32137000</v>
+      </c>
+      <c r="E48" s="3">
         <v>32263000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>36126000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>36137000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>36715000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>35503000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>31603000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>31392000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>31017000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>29797000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>29540000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>29373000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>29200000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>28584000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>28406000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>27733000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>27399000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>27054000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>27349000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>122842000</v>
+      </c>
+      <c r="E49" s="3">
         <v>122371000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>121884000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>122382000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>129114000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>129522000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>126318000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>125467000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>126395000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>46213000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>45969000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>45882000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>46386000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>46297000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>45902000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>41430000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>41650000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>41257000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>41098000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2985,8 +3098,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3044,67 +3160,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8085000</v>
+      </c>
+      <c r="E52" s="3">
         <v>8343000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4385000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4189000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4011000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4835000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4715000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>17374000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>18573000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3424000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3365000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2653000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2401000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2373000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2390000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2297000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2301000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2341000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2340000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3162,67 +3284,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>200250000</v>
+      </c>
+      <c r="E54" s="3">
         <v>201888000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>201549000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>207649000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>206294000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>200948000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>193984000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>209475000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>214342000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>99941000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>98598000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>98792000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>97943000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>97734000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>95789000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>92752000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>91807000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>91576000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>92033000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3244,8 +3372,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3267,362 +3396,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>17062000</v>
+      </c>
+      <c r="E57" s="3">
         <v>16846000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>16017000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>16144000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>17048000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>18920000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>17762000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>17647000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>20503000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10696000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9479000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9763000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9022000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9574000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6490000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>8987000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>7678000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>9616000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>6860000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5243000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5397000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5748000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>10262000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>12712000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>10047000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>8857000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>21923000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>19158000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3489000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3790000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5992000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5918000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6009000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6172000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3338000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4865000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5698000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3687000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4337000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4303000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4863000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4511000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5713000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5830000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4722000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5023000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4715000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3434000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4591000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4459000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4788000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4292000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6933000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4769000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4822000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4003000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>6295000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>26642000</v>
+      </c>
+      <c r="E60" s="3">
         <v>26546000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>26628000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>30917000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>35473000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>34797000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>31341000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>44593000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>44376000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>17619000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>17860000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>20214000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>19728000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>19875000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>19595000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>17094000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>17365000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>19317000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>16842000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>50903000</v>
+      </c>
+      <c r="E61" s="3">
         <v>52878000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>53188000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>54468000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>43052000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>38309000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>38129000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>36311000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>37803000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>17176000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>17084000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>17681000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>18766000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>20082000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>19119000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>18849000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>16788000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>14792000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>16483000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>23509000</v>
+      </c>
+      <c r="E62" s="3">
         <v>24406000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>24221000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>22639000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>23796000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>24040000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>21662000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>23318000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>26721000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9629000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9699000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9689000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>9648000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9552000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>10923000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>10758000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>10387000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>10290000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>11385000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3680,8 +3828,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3739,8 +3890,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3798,67 +3952,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>114710000</v>
+      </c>
+      <c r="E66" s="3">
         <v>117817000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>117966000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>121783000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>115887000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>111191000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>105107000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>119003000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>124404000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>49625000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>49825000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>52704000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>52792000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>54445000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>54474000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>50221000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>48023000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>48366000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>48768000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3880,8 +4040,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3939,8 +4100,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3998,8 +4162,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4057,8 +4224,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4116,67 +4286,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>39365000</v>
+      </c>
+      <c r="E72" s="3">
         <v>38456000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>38315000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>39004000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>43721000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>43202000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>42494000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>41382000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>41212000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>84887000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>82679000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>80364000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>78704000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>75763000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>72606000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>70863000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>69708000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>67327000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>66088000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4234,8 +4410,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4293,8 +4472,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4352,67 +4534,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>85540000</v>
+      </c>
+      <c r="E76" s="3">
         <v>84071000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>83583000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>85866000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>90407000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>89757000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>88877000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>90472000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>89938000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>50316000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>48773000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>46088000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>45151000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>43289000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>41315000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>42531000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>43784000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>43210000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>43265000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4470,131 +4658,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E80" s="2">
         <v>44198</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44107</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44009</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43918</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43827</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43736</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43645</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43554</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43463</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43372</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43099</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42917</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42826</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>901000</v>
+      </c>
+      <c r="E81" s="3">
         <v>17000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-710000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4721000</v>
       </c>
-      <c r="G81" s="3">
-        <v>2567000</v>
-      </c>
       <c r="H81" s="3">
+        <v>460000</v>
+      </c>
+      <c r="I81" s="3">
         <v>2107000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1054000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1760000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5452000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2788000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2322000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2916000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2937000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4423000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1747000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2366000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2388000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2479000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4616,67 +4813,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1272000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1298000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1335000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1379000</v>
       </c>
-      <c r="G83" s="3">
-        <v>2631000</v>
-      </c>
       <c r="H83" s="3">
+        <v>1333000</v>
+      </c>
+      <c r="I83" s="3">
         <v>1298000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1296000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1304000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>828000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>732000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>794000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>744000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>731000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>742000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>708000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>711000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>676000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>687000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>689000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4734,8 +4935,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4793,8 +4997,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4852,8 +5059,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4911,8 +5121,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4970,67 +5183,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1388000</v>
+      </c>
+      <c r="E89" s="3">
         <v>84000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1667000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1160000</v>
       </c>
-      <c r="G89" s="3">
-        <v>4791000</v>
-      </c>
       <c r="H89" s="3">
+        <v>3180000</v>
+      </c>
+      <c r="I89" s="3">
         <v>1611000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2020000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1393000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3880000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2099000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3853000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3679000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4526000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2237000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3512000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4133000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3253000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1445000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3598000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5052,67 +5271,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-770000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-760000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-729000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-708000</v>
       </c>
-      <c r="G91" s="3">
-        <v>-2585000</v>
-      </c>
       <c r="H91" s="3">
+        <v>-1247000</v>
+      </c>
+      <c r="I91" s="3">
         <v>-1338000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1309000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1177000</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-1195000</v>
       </c>
       <c r="L91" s="3">
         <v>-1195000</v>
       </c>
       <c r="M91" s="3">
+        <v>-1195000</v>
+      </c>
+      <c r="N91" s="3">
         <v>-1201000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1220000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1063000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-981000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-895000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-805000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1766000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2080000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2164000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5170,8 +5393,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5229,67 +5455,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-591000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-732000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-515000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-714000</v>
       </c>
-      <c r="G94" s="3">
-        <v>-2408000</v>
-      </c>
       <c r="H94" s="3">
+        <v>-1058000</v>
+      </c>
+      <c r="I94" s="3">
         <v>-1350000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>9667000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1102000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-11347000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1336000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-193000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1338000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2762000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1043000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-821000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-900000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1355000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1035000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1532000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5311,8 +5543,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5326,17 +5559,17 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-1587000</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-1585000</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -5344,11 +5577,11 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-1249000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -5356,11 +5589,11 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-1208000</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -5368,10 +5601,13 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-1145000</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5429,8 +5665,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5488,8 +5727,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5547,181 +5789,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1908000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-333000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-6439000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>8303000</v>
       </c>
-      <c r="G100" s="3">
-        <v>6616000</v>
-      </c>
       <c r="H100" s="3">
+        <v>5499000</v>
+      </c>
+      <c r="I100" s="3">
         <v>1117000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-13444000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-342000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>13107000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-411000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3862000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2099000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2298000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-584000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3167000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2743000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2062000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-987000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2900000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="E101" s="3">
         <v>139000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>87000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>27000</v>
       </c>
-      <c r="G101" s="3">
-        <v>-76000</v>
-      </c>
       <c r="H101" s="3">
+        <v>-117000</v>
+      </c>
+      <c r="I101" s="3">
         <v>41000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-145000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-28000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>119000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-44000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>26000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-106000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>34000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>21000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>54000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>46000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>43000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-112000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1180000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-842000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5200000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>8776000</v>
       </c>
-      <c r="G102" s="3">
-        <v>8923000</v>
-      </c>
       <c r="H102" s="3">
+        <v>7504000</v>
+      </c>
+      <c r="I102" s="3">
         <v>1419000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1902000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2865000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5759000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>308000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-176000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>136000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-500000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>631000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-422000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>536000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-121000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-689000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-617000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DIS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DIS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>DIS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,276 +665,288 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E7" s="2">
         <v>44289</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44198</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44107</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44009</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43918</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43827</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43736</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43645</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43554</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43463</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43372</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43099</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42917</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42826</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>17022000</v>
+      </c>
+      <c r="E8" s="3">
         <v>15613000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>16249000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>14707000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11779000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>18025000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>20877000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>19137000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20245000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14922000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15303000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14307000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>15228000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>14548000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>15351000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12779000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>14238000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>13336000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>14784000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>13142000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>11233000</v>
+      </c>
+      <c r="E9" s="3">
         <v>9782000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11775000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11013000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7896000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11937000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>13034000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>11865000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12819000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8376000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9001000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8108000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8348000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7533000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8737000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7214000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7717000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>6969000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8406000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>7305000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5789000</v>
+      </c>
+      <c r="E10" s="3">
         <v>5831000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4474000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3694000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3883000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6088000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7843000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7272000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7426000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6546000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6302000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6199000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6880000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7015000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6614000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5565000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6521000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6367000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6378000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5837000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -957,8 +969,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,8 +1032,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1081,59 +1097,62 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-91000</v>
+      </c>
+      <c r="E14" s="3">
         <v>414000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>113000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>393000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>5047000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>440000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>150000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>825000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>515000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-3948000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>5000</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>13000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>15000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>98000</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
@@ -1141,72 +1160,78 @@
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1266000</v>
+      </c>
+      <c r="E15" s="3">
         <v>1272000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1298000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1335000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1377000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1334000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1299000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1303000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1304000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>828000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>732000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>794000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>744000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>731000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>742000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>708000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>711000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>676000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>687000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>689000</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1226,132 +1251,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14276000</v>
+        <v>15576000</v>
       </c>
       <c r="E17" s="3">
+        <v>14581000</v>
+      </c>
+      <c r="F17" s="3">
         <v>16103000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15553000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>16775000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>16809000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>18192000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>17698000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18000000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7583000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11885000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11229000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11304000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10524000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11573000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9993000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10627000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9586000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>11078000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>10312000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1337000</v>
+        <v>1446000</v>
       </c>
       <c r="E18" s="3">
+        <v>1032000</v>
+      </c>
+      <c r="F18" s="3">
         <v>146000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-846000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4996000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1216000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2685000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1439000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2245000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7339000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3418000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3078000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3924000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4024000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3778000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2786000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3611000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3750000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3706000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2830000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1374,318 +1406,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>308000</v>
+        <v>-47000</v>
       </c>
       <c r="E20" s="3">
+        <v>613000</v>
+      </c>
+      <c r="F20" s="3">
         <v>304000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>730000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>623000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>908000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>653000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>613000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>230000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>78000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>162000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>313000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>105000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>76000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>113000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>45000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>141000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>116000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>140000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2665000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2917000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1748000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1219000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2994000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3457000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4636000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3348000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3779000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8245000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4312000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4185000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4773000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4831000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4633000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3539000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4463000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4542000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4533000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3689000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>404000</v>
+      </c>
+      <c r="E22" s="3">
         <v>415000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>404000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>464000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>467000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1073000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>712000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>815000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>457000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>180000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>149000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>189000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>175000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>172000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>146000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>137000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>134000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>115000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>121000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>995000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1230000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>46000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-580000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4840000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1051000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2626000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1237000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2018000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7237000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3431000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3202000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3854000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3928000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3745000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2694000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3618000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3751000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3725000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2881000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-133000</v>
+      </c>
+      <c r="E24" s="3">
         <v>108000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>16000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>49000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-331000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>523000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>458000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>339000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>395000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1647000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>679000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>683000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>895000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>913000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>872000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>829000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1144000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1212000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1237000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>989000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1746,132 +1794,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1128000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1122000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>30000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-629000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4509000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>528000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2168000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>898000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1623000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5590000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2752000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2519000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2959000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3015000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2873000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1865000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2474000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2539000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2488000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1892000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>923000</v>
+      </c>
+      <c r="E27" s="3">
         <v>912000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>29000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-710000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4718000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>468000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2128000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>769000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1437000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5431000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2754000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2422000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2816000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2837000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2823000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1747000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2366000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2388000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2479000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1932,55 +1989,58 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E29" s="3">
         <v>-11000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-12000</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-3000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-8000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-21000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>285000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>323000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>21000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>34000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-100000</v>
-      </c>
-      <c r="O29" s="3">
-        <v>100000</v>
       </c>
       <c r="P29" s="3">
         <v>100000</v>
       </c>
       <c r="Q29" s="3">
+        <v>100000</v>
+      </c>
+      <c r="R29" s="3">
         <v>1600000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -1994,8 +2054,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2056,8 +2119,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2118,132 +2184,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-308000</v>
+        <v>47000</v>
       </c>
       <c r="E32" s="3">
+        <v>-613000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-304000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-730000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-623000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-908000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-653000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-613000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-230000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-78000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-162000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-313000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-105000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-76000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-113000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-45000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-141000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-116000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-140000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-170000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>918000</v>
+      </c>
+      <c r="E33" s="3">
         <v>901000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>17000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-710000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4721000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>460000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2107000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1054000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1760000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5452000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2788000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2322000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2916000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2937000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4423000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1747000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2366000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2388000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2479000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2304,137 +2379,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>918000</v>
+      </c>
+      <c r="E35" s="3">
         <v>901000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>17000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-710000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4721000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>460000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2107000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1054000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1760000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5452000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2788000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2322000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2916000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2937000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4423000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1747000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2366000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2388000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2479000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E38" s="2">
         <v>44289</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44198</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44107</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44009</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43918</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43827</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43736</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43645</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43554</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43463</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43372</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43099</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42917</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42826</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2457,8 +2541,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2481,70 +2566,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16070000</v>
+      </c>
+      <c r="E41" s="3">
         <v>15890000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>17068000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>17914000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>23115000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>14339000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6833000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5418000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6728000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10208000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4455000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4150000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4326000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4179000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4677000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4017000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4336000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3800000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3736000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4610000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2605,442 +2694,466 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13355000</v>
+      </c>
+      <c r="E43" s="3">
         <v>12533000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>14051000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12708000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>12622000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>14532000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>17100000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>15481000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>15673000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>14593000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>10123000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9334000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>10071000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>9678000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9886000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8633000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>9636000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>9293000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>9878000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>9065000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1344000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1406000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1480000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1583000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1559000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1531000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1571000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1649000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1516000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1445000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1357000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1392000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1322000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1301000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1307000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1373000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1300000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1304000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1299000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1390000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3197000</v>
+      </c>
+      <c r="E45" s="3">
         <v>3048000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2275000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3046000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4034000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2872000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2272000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5576000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7453000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8031000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1602000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1949000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2010000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1650000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1404000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1866000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1879000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1873000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1752000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1901000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>33966000</v>
+      </c>
+      <c r="E46" s="3">
         <v>32877000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>34874000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>35251000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>41330000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>33274000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>27776000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>28124000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>31370000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>34277000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>17537000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16825000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>17729000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16808000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>17274000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>15889000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>17151000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>16270000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>16665000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>16966000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4045000</v>
+      </c>
+      <c r="E47" s="3">
         <v>4309000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4037000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3903000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3611000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3180000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3312000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3224000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3872000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4080000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2970000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2899000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3155000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3148000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3206000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3202000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4141000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>4187000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>4259000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>4280000</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>32377000</v>
+      </c>
+      <c r="E48" s="3">
         <v>32137000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>32263000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>36126000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>36137000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>36715000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>35503000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>31603000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>31392000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>31017000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>29797000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>29540000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>29373000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>29200000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>28584000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>28406000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>27733000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>27399000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>27054000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>27349000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>123325000</v>
+      </c>
+      <c r="E49" s="3">
         <v>122842000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>122371000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>121884000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>122382000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>129114000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>129522000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>126318000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>125467000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>126395000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>46213000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>45969000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>45882000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>46386000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>46297000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>45902000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>41430000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>41650000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>41257000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>41098000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3101,8 +3214,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3163,70 +3279,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8508000</v>
+      </c>
+      <c r="E52" s="3">
         <v>8085000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8343000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4385000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4189000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4011000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4835000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4715000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>17374000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>18573000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3424000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3365000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2653000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2401000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2373000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2390000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2297000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2301000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2341000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2340000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3287,70 +3409,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>202221000</v>
+      </c>
+      <c r="E54" s="3">
         <v>200250000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>201888000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>201549000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>207649000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>206294000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>200948000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>193984000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>209475000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>214342000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>99941000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>98598000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>98792000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>97943000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>97734000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>95789000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>92752000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>91807000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>91576000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>92033000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3373,8 +3501,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3397,380 +3526,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>18317000</v>
+      </c>
+      <c r="E57" s="3">
         <v>17062000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>16846000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>16017000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>16144000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>17048000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>18920000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>17762000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>17647000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>20503000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>10696000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9479000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9763000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9022000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9574000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6490000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>8987000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>7678000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>9616000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>6860000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4728000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5243000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5397000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5748000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>10262000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>12712000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>10047000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>8857000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>21923000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>19158000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3489000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3790000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5992000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5918000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6009000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6172000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3338000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4865000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5698000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3687000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4368000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4337000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4303000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4863000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4511000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5713000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5830000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4722000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5023000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4715000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3434000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4591000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4459000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4788000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4292000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6933000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4769000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4822000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4003000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>6295000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>27413000</v>
+      </c>
+      <c r="E60" s="3">
         <v>26642000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>26546000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>26628000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>30917000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>35473000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>34797000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>31341000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>44593000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>44376000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>17619000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>17860000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>20214000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>19728000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>19875000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>19595000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>17094000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>17365000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>19317000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>16842000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>51110000</v>
+      </c>
+      <c r="E61" s="3">
         <v>50903000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>52878000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>53188000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>54468000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>43052000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>38309000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>38129000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>36311000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>37803000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>17176000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>17084000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>17681000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>18766000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>20082000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>19119000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>18849000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>16788000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>14792000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>16483000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>23084000</v>
+      </c>
+      <c r="E62" s="3">
         <v>23509000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>24406000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>24221000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>22639000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>23796000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>24040000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>21662000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>23318000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>26721000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9629000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9699000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>9689000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9648000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9552000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>10923000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>10758000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>10387000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>10290000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>11385000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3831,8 +3979,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3893,8 +4044,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3955,70 +4109,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>115480000</v>
+      </c>
+      <c r="E66" s="3">
         <v>114710000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>117817000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>117966000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>121783000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>115887000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>111191000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>105107000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>119003000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>124404000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>49625000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>49825000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>52704000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>52792000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>54445000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>54474000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>50221000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>48023000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>48366000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>48768000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4041,8 +4201,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4103,8 +4264,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4165,8 +4329,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4227,8 +4394,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4289,70 +4459,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>40311000</v>
+      </c>
+      <c r="E72" s="3">
         <v>39365000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>38456000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>38315000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>39004000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>43721000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>43202000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>42494000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>41382000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>41212000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>84887000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>82679000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>80364000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>78704000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>75763000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>72606000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>70863000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>69708000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>67327000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>66088000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4413,8 +4589,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4475,8 +4654,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4537,70 +4719,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>86741000</v>
+      </c>
+      <c r="E76" s="3">
         <v>85540000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>84071000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>83583000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>85866000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>90407000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>89757000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>88877000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>90472000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>89938000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>50316000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>48773000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>46088000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>45151000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>43289000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>41315000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>42531000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>43784000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>43210000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>43265000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4661,137 +4849,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E80" s="2">
         <v>44289</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44198</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44107</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44009</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43918</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43827</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43736</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43645</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43554</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43463</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43372</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43099</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42917</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42826</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>918000</v>
+      </c>
+      <c r="E81" s="3">
         <v>901000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>17000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-710000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4721000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>460000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2107000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1054000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1760000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5452000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2788000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2322000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2916000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2937000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4423000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1747000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2366000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2388000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2479000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4814,70 +5011,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1266000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1272000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1298000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1335000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1379000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1333000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1298000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1296000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1304000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>828000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>732000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>794000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>744000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>731000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>742000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>708000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>711000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>676000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>687000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>689000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4938,8 +5139,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5000,8 +5204,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5062,8 +5269,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5124,8 +5334,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5186,70 +5399,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1460000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1388000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>84000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1667000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1160000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3180000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1611000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2020000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1393000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3880000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2099000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3853000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3679000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4526000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2237000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3512000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4133000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3253000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1445000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3598000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5272,70 +5491,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-938000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-770000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-760000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-729000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-708000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1247000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1338000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1309000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1177000</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-1195000</v>
       </c>
       <c r="M91" s="3">
         <v>-1195000</v>
       </c>
       <c r="N91" s="3">
+        <v>-1195000</v>
+      </c>
+      <c r="O91" s="3">
         <v>-1201000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1220000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1063000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-981000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-895000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-805000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1766000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2080000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2164000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5396,8 +5619,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5458,70 +5684,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-754000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-591000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-732000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-515000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-714000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1058000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1350000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>9667000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1102000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-11347000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1336000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-193000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1338000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2762000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1043000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-821000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-900000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1355000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1035000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1532000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5544,8 +5776,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5568,11 +5801,11 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1585000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -5580,11 +5813,11 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1249000</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -5592,11 +5825,11 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-1208000</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
@@ -5604,10 +5837,13 @@
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-1145000</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5668,8 +5904,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5730,8 +5969,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5792,190 +6034,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-530000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1908000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-333000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-6439000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>8303000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5499000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1117000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-13444000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-342000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>13107000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-411000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3862000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2099000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2298000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-584000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3167000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2743000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2062000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-987000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2900000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-69000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>139000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>87000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>27000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-117000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>41000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-145000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-28000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>119000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-44000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>26000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-106000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>34000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>21000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>54000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>46000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>43000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-112000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>183000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1180000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-842000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5200000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>8776000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7504000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1419000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1902000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2865000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5759000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>308000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-176000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>136000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-500000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>631000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-422000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>536000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-121000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-689000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-617000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DIS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DIS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>DIS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,288 +665,300 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E7" s="2">
         <v>44380</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44289</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44198</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44107</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44009</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43918</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43827</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43736</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43645</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43554</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43463</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43372</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43099</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42917</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42826</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>18534000</v>
+      </c>
+      <c r="E8" s="3">
         <v>17022000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>15613000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>16249000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>14707000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11779000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>18025000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>20877000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>19137000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20245000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14922000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>15303000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14307000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>15228000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>14548000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>15351000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12779000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>14238000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>13336000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>14784000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>13142000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>12341000</v>
+      </c>
+      <c r="E9" s="3">
         <v>11233000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>9782000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11775000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11013000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7896000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11937000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>13034000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11865000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12819000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8376000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9001000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8108000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8348000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7533000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8737000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7214000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7717000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>6969000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8406000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>7305000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6193000</v>
+      </c>
+      <c r="E10" s="3">
         <v>5789000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5831000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4474000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3694000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3883000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6088000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7843000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7272000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7426000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6546000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6302000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6199000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6880000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7015000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6614000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5565000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6521000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6367000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6378000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>5837000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -970,8 +982,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1035,8 +1048,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1100,62 +1116,65 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>92000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-91000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>414000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>113000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>393000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>5047000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>440000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>150000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>825000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>515000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-3948000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>5000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>13000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>15000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>98000</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
@@ -1163,75 +1182,81 @@
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1275000</v>
+      </c>
+      <c r="E15" s="3">
         <v>1266000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1272000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1298000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1335000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1377000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1334000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1299000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1303000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1304000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>828000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>732000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>794000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>744000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>731000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>742000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>708000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>711000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>676000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>687000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>689000</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1252,138 +1277,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>17927000</v>
+      </c>
+      <c r="E17" s="3">
         <v>15576000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14581000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>16103000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>15553000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>16775000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>16809000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>18192000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>17698000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18000000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7583000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11885000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11229000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11304000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10524000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>11573000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9993000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10627000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9586000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>11078000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>10312000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>607000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1446000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1032000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>146000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-846000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4996000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1216000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2685000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1439000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2245000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7339000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3418000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3078000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3924000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4024000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3778000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2786000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3611000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3750000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3706000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2830000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1407,333 +1439,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-47000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>613000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>304000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>730000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>623000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>908000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>653000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>613000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>230000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>78000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>162000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>313000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>105000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>76000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>113000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>45000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>141000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>116000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>140000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1888000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2665000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2917000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1748000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1219000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2994000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3457000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4636000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3348000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3779000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8245000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4312000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4185000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4773000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4831000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4633000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3539000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4463000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4542000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>4533000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3689000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>323000</v>
+      </c>
+      <c r="E22" s="3">
         <v>404000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>415000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>404000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>464000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>467000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1073000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>712000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>815000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>457000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>180000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>149000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>189000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>175000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>172000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>146000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>137000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>134000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>115000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>121000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>290000</v>
+      </c>
+      <c r="E23" s="3">
         <v>995000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1230000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>46000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-580000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4840000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1051000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2626000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1237000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2018000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7237000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3431000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3202000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3854000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3928000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3745000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2694000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3618000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3751000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3725000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2881000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-133000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>108000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>16000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>49000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-331000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>523000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>458000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>339000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>395000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1647000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>679000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>683000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>895000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>913000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>872000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>829000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1144000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1212000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1237000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>989000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1797,138 +1845,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>256000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1128000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1122000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>30000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-629000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4509000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>528000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2168000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>898000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1623000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5590000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2752000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2519000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2959000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3015000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2873000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1865000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2474000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2539000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2488000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1892000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>160000</v>
+      </c>
+      <c r="E27" s="3">
         <v>923000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>912000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>29000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-710000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4718000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>468000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2128000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>769000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1437000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5431000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2754000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2422000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2816000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2837000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2823000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1747000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2366000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2388000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2479000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1992,58 +2049,61 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E29" s="3">
         <v>-5000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-11000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-12000</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-3000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-8000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-21000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>285000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>323000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>21000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>34000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-100000</v>
-      </c>
-      <c r="P29" s="3">
-        <v>100000</v>
       </c>
       <c r="Q29" s="3">
         <v>100000</v>
       </c>
       <c r="R29" s="3">
+        <v>100000</v>
+      </c>
+      <c r="S29" s="3">
         <v>1600000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2057,8 +2117,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2122,8 +2185,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2187,138 +2253,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E32" s="3">
         <v>47000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-613000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-304000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-730000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-623000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-908000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-653000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-613000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-230000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-78000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-162000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-313000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-105000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-76000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-113000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-45000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-141000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-116000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-140000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-170000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>159000</v>
+      </c>
+      <c r="E33" s="3">
         <v>918000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>901000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>17000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-710000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4721000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>460000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2107000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1054000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1760000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5452000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2788000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2322000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2916000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2937000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4423000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1747000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2366000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2388000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2479000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2382,143 +2457,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>159000</v>
+      </c>
+      <c r="E35" s="3">
         <v>918000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>901000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>17000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-710000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4721000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>460000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2107000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1054000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1760000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5452000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2788000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2322000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2916000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2937000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4423000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1747000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2366000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2388000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2479000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E38" s="2">
         <v>44380</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44289</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44198</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44107</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44009</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43918</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43827</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43736</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43645</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43554</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43463</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43372</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43099</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42917</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42826</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2542,8 +2626,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2567,73 +2652,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15959000</v>
+      </c>
+      <c r="E41" s="3">
         <v>16070000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15890000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>17068000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>17914000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>23115000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>14339000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6833000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5418000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6728000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10208000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4455000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4150000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4326000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4179000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4677000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4017000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4336000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3800000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3736000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4610000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2697,463 +2786,487 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13367000</v>
+      </c>
+      <c r="E43" s="3">
         <v>13355000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>12533000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>14051000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>12708000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>12622000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>14532000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>17100000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>15481000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>15673000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>14593000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>10123000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>9334000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>10071000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9678000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9886000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8633000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>9636000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>9293000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>9878000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>9065000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1331000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1344000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1406000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1480000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1583000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1559000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1531000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1571000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1649000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1516000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1445000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1357000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1392000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1322000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1301000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1307000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1373000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1300000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1304000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1299000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1390000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="E45" s="3">
         <v>3197000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3048000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2275000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3046000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4034000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2872000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2272000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5576000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7453000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8031000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1602000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1949000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2010000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1650000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1404000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1866000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1879000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1873000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1752000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1901000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>33657000</v>
+      </c>
+      <c r="E46" s="3">
         <v>33966000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>32877000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>34874000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>35251000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>41330000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>33274000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>27776000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>28124000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>31370000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>34277000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17537000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16825000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>17729000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16808000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>17274000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>15889000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>17151000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>16270000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>16665000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>16966000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3935000</v>
+      </c>
+      <c r="E47" s="3">
         <v>4045000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4309000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4037000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3903000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3611000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3180000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3312000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3224000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3872000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4080000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2970000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2899000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3155000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3148000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3206000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3202000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>4141000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>4187000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>4259000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>4280000</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>32624000</v>
+      </c>
+      <c r="E48" s="3">
         <v>32377000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>32137000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>32263000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>36126000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>36137000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>36715000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>35503000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>31603000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>31392000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>31017000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>29797000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>29540000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>29373000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>29200000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>28584000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>28406000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>27733000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>27399000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>27054000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>27349000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>124735000</v>
+      </c>
+      <c r="E49" s="3">
         <v>123325000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>122842000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>122371000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>121884000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>122382000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>129114000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>129522000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>126318000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>125467000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>126395000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>46213000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>45969000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>45882000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>46386000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>46297000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>45902000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>41430000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>41650000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>41257000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>41098000</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3217,8 +3330,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3282,73 +3398,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8658000</v>
+      </c>
+      <c r="E52" s="3">
         <v>8508000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8085000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8343000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4385000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4189000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4011000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4835000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4715000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>17374000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>18573000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3424000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3365000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2653000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2401000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2373000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2390000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2297000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2301000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2341000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2340000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3412,73 +3534,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>203609000</v>
+      </c>
+      <c r="E54" s="3">
         <v>202221000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>200250000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>201888000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>201549000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>207649000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>206294000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>200948000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>193984000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>209475000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>214342000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>99941000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>98598000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>98792000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>97943000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>97734000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>95789000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>92752000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>91807000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>91576000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>92033000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3502,8 +3630,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3527,398 +3656,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>20894000</v>
+      </c>
+      <c r="E57" s="3">
         <v>18317000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>17062000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>16846000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>16017000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>16144000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>17048000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>18920000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>17762000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>17647000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>20503000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>10696000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9479000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9763000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9022000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9574000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6490000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>8987000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>7678000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>9616000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>6860000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5866000</v>
+      </c>
+      <c r="E58" s="3">
         <v>4728000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5243000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5397000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5748000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>10262000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>12712000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>10047000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8857000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>21923000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>19158000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3489000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3790000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5992000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5918000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6009000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6172000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3338000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4865000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5698000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3687000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4317000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4368000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4337000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4303000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4863000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4511000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5713000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5830000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4722000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5023000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4715000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3434000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4591000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4459000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4788000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4292000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6933000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4769000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4822000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4003000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>6295000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>31077000</v>
+      </c>
+      <c r="E60" s="3">
         <v>27413000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>26642000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>26546000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>26628000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>30917000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>35473000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>34797000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>31341000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>44593000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>44376000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>17619000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>17860000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>20214000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>19728000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>19875000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>19595000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>17094000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>17365000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>19317000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>16842000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>48540000</v>
+      </c>
+      <c r="E61" s="3">
         <v>51110000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>50903000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>52878000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>53188000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>54468000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>43052000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>38309000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>38129000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>36311000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>37803000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>17176000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>17084000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>17681000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>18766000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>20082000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>19119000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>18849000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>16788000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>14792000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>16483000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>21768000</v>
+      </c>
+      <c r="E62" s="3">
         <v>23084000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>23509000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>24406000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>24221000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>22639000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>23796000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>24040000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>21662000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>23318000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>26721000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9629000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>9699000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9689000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9648000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9552000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>10923000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>10758000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>10387000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>10290000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>11385000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3982,8 +4130,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4047,8 +4198,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4112,73 +4266,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>115056000</v>
+      </c>
+      <c r="E66" s="3">
         <v>115480000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>114710000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>117817000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>117966000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>121783000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>115887000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>111191000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>105107000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>119003000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>124404000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>49625000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>49825000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>52704000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>52792000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>54445000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>54474000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>50221000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>48023000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>48366000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>48768000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4202,8 +4362,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4267,8 +4428,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4332,8 +4496,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4397,8 +4564,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4462,73 +4632,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>40429000</v>
+      </c>
+      <c r="E72" s="3">
         <v>40311000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>39365000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>38456000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>38315000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>39004000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>43721000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>43202000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>42494000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>41382000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>41212000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>84887000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>82679000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>80364000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>78704000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>75763000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>72606000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>70863000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>69708000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>67327000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>66088000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4592,8 +4768,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4657,8 +4836,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4722,73 +4904,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>88553000</v>
+      </c>
+      <c r="E76" s="3">
         <v>86741000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>85540000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>84071000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>83583000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>85866000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>90407000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>89757000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>88877000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>90472000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>89938000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>50316000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>48773000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>46088000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>45151000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>43289000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>41315000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>42531000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>43784000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>43210000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>43265000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4852,143 +5040,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E80" s="2">
         <v>44380</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44289</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44198</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44107</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44009</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43918</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43827</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43736</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43645</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43554</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43463</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43372</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43099</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42917</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42826</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>159000</v>
+      </c>
+      <c r="E81" s="3">
         <v>918000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>901000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>17000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-710000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4721000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>460000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2107000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1054000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1760000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5452000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2788000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2322000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2916000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2937000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4423000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1747000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2366000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2388000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2479000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5012,73 +5209,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1275000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1266000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1272000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1298000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1335000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1379000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1333000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1298000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1296000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1304000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>828000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>732000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>794000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>744000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>731000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>742000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>708000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>711000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>676000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>687000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>689000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5142,8 +5343,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5207,8 +5411,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5272,8 +5479,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5337,8 +5547,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5402,73 +5615,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2635000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1460000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1388000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>84000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1667000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1160000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3180000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1611000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2020000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1393000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3880000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2099000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3853000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3679000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4526000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2237000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3512000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>4133000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3253000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1445000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3598000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5492,73 +5711,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1110000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-938000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-770000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-760000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-729000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-708000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1247000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1338000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1309000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1177000</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-1195000</v>
       </c>
       <c r="N91" s="3">
         <v>-1195000</v>
       </c>
       <c r="O91" s="3">
+        <v>-1195000</v>
+      </c>
+      <c r="P91" s="3">
         <v>-1201000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1220000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1063000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-981000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-895000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-805000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1766000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2080000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2164000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5622,8 +5845,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5687,73 +5913,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1086000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-754000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-591000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-732000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-515000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-714000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1058000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1350000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>9667000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1102000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-11347000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1336000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-193000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1338000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2762000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1043000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-821000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-900000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1355000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1035000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1532000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5777,8 +6009,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5804,11 +6037,11 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-1585000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -5816,11 +6049,11 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-1249000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -5828,11 +6061,11 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-1208000</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
@@ -5840,10 +6073,13 @@
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-1145000</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5907,8 +6143,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5972,8 +6211,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6037,199 +6279,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1614000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-530000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1908000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-333000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-6439000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>8303000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>5499000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1117000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-13444000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-342000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>13107000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-411000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3862000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2099000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2298000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-584000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3167000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2743000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2062000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-987000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2900000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-47000</v>
+      </c>
+      <c r="E101" s="3">
         <v>7000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-69000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>139000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>87000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>27000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-117000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>41000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-145000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-28000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>119000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-44000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>26000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-106000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>34000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>21000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>54000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>46000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>43000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-112000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-112000</v>
+      </c>
+      <c r="E102" s="3">
         <v>183000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1180000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-842000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5200000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>8776000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>7504000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1419000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1902000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2865000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5759000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>308000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-176000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>136000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-500000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>631000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-422000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>536000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-121000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-689000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-617000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DIS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DIS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>DIS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,300 +665,312 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E7" s="2">
         <v>44471</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44380</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44289</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44198</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44107</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44009</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43918</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43827</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43736</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43645</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43554</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43463</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43372</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43099</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42917</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42826</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>21819000</v>
+      </c>
+      <c r="E8" s="3">
         <v>18534000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>17022000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>15613000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>16249000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>14707000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11779000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>18025000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20877000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>19137000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>20245000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14922000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>15303000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>14307000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>15228000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>14548000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>15351000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>12779000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>14238000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>13336000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>14784000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>13142000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>14567000</v>
+      </c>
+      <c r="E9" s="3">
         <v>12341000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11233000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9782000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11775000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11013000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7896000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>11937000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13034000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11865000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12819000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8376000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9001000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8108000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8348000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7533000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8737000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7214000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7717000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>6969000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>8406000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>7305000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7252000</v>
+      </c>
+      <c r="E10" s="3">
         <v>6193000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5789000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5831000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4474000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3694000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3883000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6088000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7843000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7272000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7426000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6546000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6302000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6199000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6880000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>7015000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6614000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5565000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6521000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6367000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>6378000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>5837000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -983,8 +995,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1051,8 +1064,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1119,65 +1135,68 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>92000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-91000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>414000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>113000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>393000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>5047000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>440000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>150000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>825000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>515000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-3948000</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>5000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>13000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>15000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>98000</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
@@ -1185,78 +1204,84 @@
         <v>0</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1269000</v>
+      </c>
+      <c r="E15" s="3">
         <v>1275000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1266000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1272000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1298000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1335000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1377000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1334000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1299000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1303000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1304000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>828000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>732000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>794000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>744000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>731000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>742000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>708000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>711000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>676000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>687000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>689000</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1278,144 +1303,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>19627000</v>
+      </c>
+      <c r="E17" s="3">
         <v>17927000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15576000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14581000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>16103000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>15553000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>16775000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>16809000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18192000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>17698000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>18000000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7583000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11885000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11229000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11304000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10524000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>11573000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9993000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10627000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9586000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>11078000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>10312000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2192000</v>
+      </c>
+      <c r="E18" s="3">
         <v>607000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1446000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1032000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>146000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-846000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4996000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1216000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2685000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1439000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2245000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7339000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3418000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3078000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3924000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4024000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3778000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2786000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3611000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3750000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3706000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2830000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1440,348 +1472,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-143000</v>
+      </c>
+      <c r="E20" s="3">
         <v>6000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-47000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>613000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>304000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>730000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>623000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>908000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>653000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>613000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>230000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>78000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>162000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>313000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>105000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>76000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>113000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>45000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>141000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>116000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>140000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3318000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1888000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2665000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2917000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1748000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1219000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2994000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3457000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4636000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3348000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3779000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>8245000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4312000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4185000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4773000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4831000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4633000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3539000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4463000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>4542000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>4533000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>3689000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>361000</v>
+      </c>
+      <c r="E22" s="3">
         <v>323000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>404000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>415000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>404000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>464000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>467000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1073000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>712000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>815000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>457000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>180000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>149000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>189000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>175000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>172000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>146000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>137000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>134000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>115000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>121000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1688000</v>
+      </c>
+      <c r="E23" s="3">
         <v>290000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>995000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1230000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>46000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-580000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4840000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1051000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2626000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1237000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2018000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7237000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3431000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3202000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3854000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3928000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3745000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2694000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3618000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3751000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3725000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2881000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>488000</v>
+      </c>
+      <c r="E24" s="3">
         <v>34000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-133000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>108000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>16000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>49000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-331000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>523000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>458000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>339000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>395000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1647000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>679000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>683000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>895000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>913000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>872000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>829000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1144000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1212000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1237000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>989000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1848,144 +1896,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1200000</v>
+      </c>
+      <c r="E26" s="3">
         <v>256000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1128000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1122000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>30000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-629000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4509000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>528000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2168000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>898000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1623000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5590000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2752000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2519000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2959000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3015000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2873000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1865000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2474000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2539000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2488000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1892000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1152000</v>
+      </c>
+      <c r="E27" s="3">
         <v>160000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>923000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>912000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>29000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-710000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4718000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>468000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2128000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>769000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1437000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5431000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2754000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2422000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2816000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2837000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2823000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1747000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2366000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2388000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2479000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2052,61 +2109,64 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-48000</v>
+      </c>
+      <c r="E29" s="3">
         <v>-1000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-5000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-11000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-12000</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-3000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-8000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-21000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>285000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>323000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>21000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>34000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-100000</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>100000</v>
       </c>
       <c r="R29" s="3">
         <v>100000</v>
       </c>
       <c r="S29" s="3">
+        <v>100000</v>
+      </c>
+      <c r="T29" s="3">
         <v>1600000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2120,8 +2180,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2188,8 +2251,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2256,144 +2322,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>143000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>47000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-613000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-304000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-730000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-623000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-908000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-653000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-613000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-230000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-78000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-162000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-313000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-105000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-76000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-113000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-45000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-141000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-116000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-140000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-170000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1104000</v>
+      </c>
+      <c r="E33" s="3">
         <v>159000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>918000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>901000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>17000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-710000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4721000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>460000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2107000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1054000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1760000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5452000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2788000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2322000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2916000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2937000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4423000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1747000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2366000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2388000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2479000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2460,149 +2535,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1104000</v>
+      </c>
+      <c r="E35" s="3">
         <v>159000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>918000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>901000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>17000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-710000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4721000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>460000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2107000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1054000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1760000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5452000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2788000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2322000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2916000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2937000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4423000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1747000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2366000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2388000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2479000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E38" s="2">
         <v>44471</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44380</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44289</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44198</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44107</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44009</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43918</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43827</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43736</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43645</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43554</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43463</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43372</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43099</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42917</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42826</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2627,8 +2711,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2653,76 +2738,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14444000</v>
+      </c>
+      <c r="E41" s="3">
         <v>15959000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>16070000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>15890000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>17068000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>17914000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>23115000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>14339000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6833000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5418000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6728000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10208000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4455000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4150000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4326000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4179000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4677000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4017000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4336000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3800000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3736000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4610000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2789,484 +2878,508 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>14882000</v>
+      </c>
+      <c r="E43" s="3">
         <v>13367000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>13355000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12533000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>14051000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>12708000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>12622000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>14532000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>17100000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>15481000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>15673000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>14593000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>10123000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>9334000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>10071000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9678000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>9886000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8633000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>9636000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>9293000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>9878000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>9065000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1345000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1331000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1344000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1406000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1480000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1583000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1559000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1531000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1571000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1649000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1516000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1445000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1357000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1392000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1322000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1301000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1307000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1373000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1300000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1304000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1299000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1390000</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2242000</v>
+      </c>
+      <c r="E45" s="3">
         <v>3000000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3197000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3048000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2275000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3046000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4034000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2872000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2272000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5576000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7453000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8031000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1602000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1949000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2010000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1650000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1404000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1866000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1879000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1873000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1752000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1901000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>32913000</v>
+      </c>
+      <c r="E46" s="3">
         <v>33657000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>33966000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>32877000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>34874000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>35251000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>41330000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>33274000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>27776000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>28124000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>31370000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>34277000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>17537000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16825000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>17729000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16808000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>17274000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>15889000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>17151000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>16270000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>16665000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>16966000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3549000</v>
+      </c>
+      <c r="E47" s="3">
         <v>3935000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4045000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4309000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4037000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3903000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3611000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3180000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3312000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3224000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3872000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4080000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2970000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2899000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3155000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3148000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3206000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3202000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>4141000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>4187000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>4259000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>4280000</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>32681000</v>
+      </c>
+      <c r="E48" s="3">
         <v>32624000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>32377000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>32137000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>32263000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>36126000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>36137000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>36715000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>35503000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>31603000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>31392000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>31017000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>29797000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>29540000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>29373000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>29200000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>28584000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>28406000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>27733000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>27399000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>27054000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>27349000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>125295000</v>
+      </c>
+      <c r="E49" s="3">
         <v>124735000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>123325000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>122842000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>122371000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>121884000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>122382000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>129114000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>129522000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>126318000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>125467000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>126395000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>46213000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>45969000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>45882000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>46386000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>46297000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>45902000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>41430000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>41650000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>41257000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>41098000</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3333,8 +3446,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3401,76 +3517,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8873000</v>
+      </c>
+      <c r="E52" s="3">
         <v>8658000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8508000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8085000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8343000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4385000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4189000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4011000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4835000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4715000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>17374000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>18573000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3424000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3365000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2653000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2401000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2373000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2390000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2297000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2301000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2341000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2340000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3537,76 +3659,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>203311000</v>
+      </c>
+      <c r="E54" s="3">
         <v>203609000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>202221000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>200250000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>201888000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>201549000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>207649000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>206294000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>200948000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>193984000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>209475000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>214342000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>99941000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>98598000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>98792000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>97943000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>97734000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>95789000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>92752000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>91807000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>91576000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>92033000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3631,8 +3759,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3657,416 +3786,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>18709000</v>
+      </c>
+      <c r="E57" s="3">
         <v>20894000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>18317000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>17062000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>16846000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>16017000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>16144000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>17048000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>18920000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>17762000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>17647000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>20503000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>10696000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9479000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9763000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9022000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>9574000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>6490000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>8987000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>7678000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>9616000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>6860000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6783000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5866000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4728000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5243000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5397000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5748000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>10262000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>12712000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10047000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8857000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>21923000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>19158000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3489000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3790000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5992000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5918000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6009000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>6172000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3338000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4865000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>5698000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3687000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4545000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4317000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4368000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4337000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4303000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4863000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4511000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5713000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5830000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4722000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5023000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4715000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3434000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4591000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4459000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4788000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4292000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6933000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4769000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4822000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4003000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>6295000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>30037000</v>
+      </c>
+      <c r="E60" s="3">
         <v>31077000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>27413000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>26642000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>26546000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>26628000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>30917000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>35473000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>34797000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>31341000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>44593000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>44376000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>17619000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>17860000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>20214000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>19728000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>19875000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>19595000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>17094000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>17365000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>19317000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>16842000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>47349000</v>
+      </c>
+      <c r="E61" s="3">
         <v>48540000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>51110000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>50903000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>52878000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>53188000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>54468000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>43052000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>38309000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>38129000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>36311000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>37803000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>17176000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>17084000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>17681000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>18766000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>20082000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>19119000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>18849000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>16788000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>14792000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>16483000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>22332000</v>
+      </c>
+      <c r="E62" s="3">
         <v>21768000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>23084000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>23509000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>24406000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>24221000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>22639000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>23796000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>24040000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>21662000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>23318000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>26721000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>9629000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9699000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9689000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9648000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9552000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>10923000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>10758000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>10387000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>10290000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>11385000</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4133,8 +4281,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4201,8 +4352,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4269,76 +4423,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>113447000</v>
+      </c>
+      <c r="E66" s="3">
         <v>115056000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>115480000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>114710000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>117817000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>117966000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>121783000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>115887000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>111191000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>105107000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>119003000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>124404000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>49625000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>49825000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>52704000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>52792000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>54445000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>54474000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>50221000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>48023000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>48366000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>48768000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4363,8 +4523,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4431,8 +4592,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4499,8 +4663,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4567,8 +4734,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4635,76 +4805,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>41547000</v>
+      </c>
+      <c r="E72" s="3">
         <v>40429000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>40311000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>39365000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>38456000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>38315000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>39004000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>43721000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>43202000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>42494000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>41382000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>41212000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>84887000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>82679000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>80364000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>78704000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>75763000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>72606000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>70863000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>69708000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>67327000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>66088000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4771,8 +4947,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4839,8 +5018,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4907,76 +5089,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>89864000</v>
+      </c>
+      <c r="E76" s="3">
         <v>88553000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>86741000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>85540000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>84071000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>83583000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>85866000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>90407000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>89757000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>88877000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>90472000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>89938000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>50316000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>48773000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>46088000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>45151000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>43289000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>41315000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>42531000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>43784000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>43210000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>43265000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5043,149 +5231,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E80" s="2">
         <v>44471</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44380</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44289</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44198</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44107</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44009</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43918</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43827</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43736</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43645</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43554</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43463</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43372</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43099</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42917</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42826</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1104000</v>
+      </c>
+      <c r="E81" s="3">
         <v>159000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>918000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>901000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>17000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-710000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4721000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>460000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2107000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1054000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1760000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5452000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2788000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2322000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2916000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2937000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4423000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1747000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2366000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2388000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2479000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5210,76 +5407,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1269000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1275000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1266000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1272000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1298000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1335000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1379000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1333000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1298000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1296000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1304000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>828000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>732000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>794000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>744000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>731000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>742000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>708000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>711000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>676000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>687000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>689000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5346,8 +5547,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5414,8 +5618,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5482,8 +5689,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5550,8 +5760,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5618,76 +5831,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-201000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2635000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1460000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1388000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>84000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1667000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1160000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3180000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1611000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2020000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1393000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3880000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2099000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3853000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3679000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4526000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2237000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3512000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>4133000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3253000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1445000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3598000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5712,76 +5931,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-981000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1110000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-938000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-770000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-760000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-729000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-708000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1247000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1338000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1309000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1177000</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-1195000</v>
       </c>
       <c r="O91" s="3">
         <v>-1195000</v>
       </c>
       <c r="P91" s="3">
+        <v>-1195000</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-1201000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1220000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1063000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-981000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-895000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-805000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1766000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2080000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2164000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5848,8 +6071,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5916,76 +6142,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-987000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1086000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-754000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-591000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-732000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-515000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-714000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1058000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1350000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>9667000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1102000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-11347000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1336000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-193000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1338000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2762000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1043000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-821000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-900000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1355000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1035000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1532000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6010,8 +6242,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6040,11 +6273,11 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-1585000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -6052,11 +6285,11 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1249000</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -6064,11 +6297,11 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-1208000</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
@@ -6076,10 +6309,13 @@
         <v>0</v>
       </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-1145000</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6146,8 +6382,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6214,8 +6453,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6282,208 +6524,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-292000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1614000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-530000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1908000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-333000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-6439000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>8303000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>5499000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1117000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-13444000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-342000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>13107000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-411000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3862000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2099000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2298000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-584000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-3167000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2743000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2062000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-987000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2900000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-47000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>7000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-69000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>139000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>87000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>27000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-117000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>41000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-145000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-28000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>119000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-44000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>26000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-106000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>34000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>21000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>54000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>46000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>43000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-112000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1515000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-112000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>183000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1180000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-842000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5200000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>8776000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>7504000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1419000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1902000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2865000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5759000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>308000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-176000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>136000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-500000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>631000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-422000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>536000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-121000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-689000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-617000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DIS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DIS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>DIS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,312 +665,324 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E7" s="2">
         <v>44562</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44471</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44380</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44289</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44198</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44107</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44009</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43918</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43827</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43736</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43645</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43554</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43463</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43372</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43099</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42917</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42826</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>19249000</v>
+      </c>
+      <c r="E8" s="3">
         <v>21819000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>18534000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>17022000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>15613000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>16249000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>14707000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11779000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>18025000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20877000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>19137000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>20245000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14922000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>15303000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>14307000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>15228000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>14548000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>15351000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>12779000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>14238000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>13336000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>14784000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>13142000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>12594000</v>
+      </c>
+      <c r="E9" s="3">
         <v>14567000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12341000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11233000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9782000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11775000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11013000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7896000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11937000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>13034000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11865000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>12819000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8376000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>9001000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8108000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8348000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7533000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8737000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7214000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>7717000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>6969000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>8406000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>7305000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6655000</v>
+      </c>
+      <c r="E10" s="3">
         <v>7252000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6193000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5789000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5831000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4474000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3694000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3883000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6088000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7843000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7272000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7426000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6546000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6302000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6199000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6880000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>7015000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6614000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5565000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6521000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>6367000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>6378000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>5837000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -996,8 +1008,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1067,8 +1080,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1138,68 +1154,71 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>195000</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>92000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-91000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>414000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>113000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>393000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>5047000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>440000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>150000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>825000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>515000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-3948000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>5000</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>13000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>15000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>98000</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
@@ -1207,81 +1226,87 @@
         <v>0</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1287000</v>
+      </c>
+      <c r="E15" s="3">
         <v>1269000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1275000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1266000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1272000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1298000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1335000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1377000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1334000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1299000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1303000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1304000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>828000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>732000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>794000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>744000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>731000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>742000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>708000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>711000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>676000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>687000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>689000</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1304,150 +1329,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>17844000</v>
+      </c>
+      <c r="E17" s="3">
         <v>19627000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>17927000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15576000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14581000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>16103000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15553000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>16775000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>16809000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18192000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>17698000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>18000000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7583000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11885000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11229000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>11304000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10524000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>11573000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9993000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>10627000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>9586000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>11078000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>10312000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1405000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2192000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>607000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1446000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1032000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>146000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-846000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4996000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1216000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2685000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1439000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2245000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7339000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3418000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3078000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3924000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4024000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3778000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2786000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3611000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3750000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3706000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2830000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1473,363 +1505,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-143000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>6000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-47000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>613000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>304000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>730000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>623000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>908000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>653000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>613000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>230000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>78000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>162000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>313000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>105000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>76000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>113000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>45000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>141000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>116000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>140000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2763000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3318000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1888000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2665000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2917000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1748000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1219000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2994000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3457000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4636000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3348000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3779000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>8245000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4312000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4185000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4773000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4831000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4633000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3539000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>4463000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>4542000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>4533000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>3689000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>374000</v>
+      </c>
+      <c r="E22" s="3">
         <v>361000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>323000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>404000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>415000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>404000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>464000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>467000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1073000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>712000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>815000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>457000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>180000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>149000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>189000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>175000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>172000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>146000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>137000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>134000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>115000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>121000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1102000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1688000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>290000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>995000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1230000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>46000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-580000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4840000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1051000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2626000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1237000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2018000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>7237000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3431000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3202000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3854000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3928000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3745000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2694000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3618000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3751000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3725000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2881000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>505000</v>
+      </c>
+      <c r="E24" s="3">
         <v>488000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>34000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-133000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>108000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>16000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>49000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-331000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>523000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>458000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>339000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>395000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1647000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>679000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>683000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>895000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>913000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>872000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>829000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1144000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1212000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1237000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>989000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1899,150 +1947,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>597000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1200000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>256000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1128000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1122000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>30000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-629000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4509000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>528000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2168000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>898000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1623000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5590000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2752000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2519000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2959000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3015000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2873000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1865000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2474000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2539000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2488000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1892000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>470000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1152000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>160000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>923000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>912000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>29000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-710000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4718000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>468000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2128000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>769000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1437000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5431000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2754000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2422000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2816000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2837000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2823000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1747000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2366000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2388000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2479000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2112,64 +2169,67 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>-48000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-1000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-5000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-11000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-12000</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-3000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-8000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-21000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>285000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>323000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>21000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>34000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-100000</v>
-      </c>
-      <c r="R29" s="3">
-        <v>100000</v>
       </c>
       <c r="S29" s="3">
         <v>100000</v>
       </c>
       <c r="T29" s="3">
+        <v>100000</v>
+      </c>
+      <c r="U29" s="3">
         <v>1600000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2183,8 +2243,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2254,8 +2317,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2325,150 +2391,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-71000</v>
+      </c>
+      <c r="E32" s="3">
         <v>143000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-6000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>47000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-613000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-304000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-730000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-623000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-908000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-653000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-613000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-230000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-78000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-162000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-313000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-105000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-76000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-113000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-45000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-141000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-116000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-140000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-170000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>470000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1104000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>159000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>918000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>901000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>17000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-710000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4721000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>460000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2107000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1054000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1760000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5452000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2788000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2322000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2916000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2937000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4423000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1747000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2366000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2388000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2479000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2538,155 +2613,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>470000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1104000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>159000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>918000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>901000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>17000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-710000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4721000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>460000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2107000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1054000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1760000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5452000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2788000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2322000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2916000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2937000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4423000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1747000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2366000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2388000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2479000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E38" s="2">
         <v>44562</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44471</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44380</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44289</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44198</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44107</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44009</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43918</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43827</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43736</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43645</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43554</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43463</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43372</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43099</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42917</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42826</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2712,8 +2796,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2739,79 +2824,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13272000</v>
+      </c>
+      <c r="E41" s="3">
         <v>14444000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15959000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>16070000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15890000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>17068000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>17914000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>23115000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14339000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6833000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5418000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6728000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10208000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4455000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4150000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4326000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4179000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4677000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4017000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4336000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3800000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3736000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4610000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2881,505 +2970,529 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13746000</v>
+      </c>
+      <c r="E43" s="3">
         <v>14882000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>13367000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>13355000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>12533000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>14051000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>12708000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>12622000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>14532000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>17100000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>15481000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>15673000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>14593000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>10123000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9334000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>10071000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>9678000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>9886000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>8633000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>9636000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>9293000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>9878000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>9065000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1428000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1345000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1331000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1344000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1406000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1480000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1583000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1559000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1531000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1571000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1649000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1516000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1445000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1357000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1392000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1322000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1301000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1307000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1373000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1300000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1304000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1299000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1390000</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2981000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2242000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3000000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3197000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3048000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2275000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3046000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4034000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2872000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2272000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5576000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7453000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>8031000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1602000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1949000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2010000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1650000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1404000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1866000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1879000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1873000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1752000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1901000</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>31427000</v>
+      </c>
+      <c r="E46" s="3">
         <v>32913000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>33657000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>33966000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>32877000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>34874000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>35251000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>41330000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>33274000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>27776000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>28124000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>31370000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>34277000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>17537000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16825000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>17729000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>16808000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>17274000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>15889000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>17151000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>16270000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>16665000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>16966000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3356000</v>
+      </c>
+      <c r="E47" s="3">
         <v>3549000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3935000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4045000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4309000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4037000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3903000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3611000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3180000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3312000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3224000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3872000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4080000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2970000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2899000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3155000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3148000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3206000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3202000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>4141000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>4187000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>4259000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>4280000</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>32917000</v>
+      </c>
+      <c r="E48" s="3">
         <v>32681000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>32624000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>32377000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>32137000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>32263000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>36126000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>36137000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>36715000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>35503000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>31603000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>31392000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>31017000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>29797000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>29540000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>29373000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>29200000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>28584000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>28406000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>27733000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>27399000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>27054000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>27349000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>126243000</v>
+      </c>
+      <c r="E49" s="3">
         <v>125295000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>124735000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>123325000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>122842000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>122371000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>121884000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>122382000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>129114000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>129522000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>126318000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>125467000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>126395000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>46213000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>45969000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>45882000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>46386000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>46297000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>45902000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>41430000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>41650000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>41257000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>41098000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3449,8 +3562,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3520,79 +3636,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8510000</v>
+      </c>
+      <c r="E52" s="3">
         <v>8873000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8658000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8508000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8085000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8343000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4385000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4189000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4011000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4835000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4715000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>17374000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>18573000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3424000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3365000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2653000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2401000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2373000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2390000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2297000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2301000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2341000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2340000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3662,79 +3784,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>202453000</v>
+      </c>
+      <c r="E54" s="3">
         <v>203311000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>203609000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>202221000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>200250000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>201888000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>201549000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>207649000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>206294000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>200948000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>193984000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>209475000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>214342000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>99941000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>98598000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>98792000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>97943000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>97734000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>95789000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>92752000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>91807000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>91576000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>92033000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3760,8 +3888,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3787,434 +3916,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>19669000</v>
+      </c>
+      <c r="E57" s="3">
         <v>18709000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>20894000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>18317000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>17062000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>16846000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>16017000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>16144000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>17048000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>18920000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>17762000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>17647000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>20503000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>10696000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9479000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9763000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>9022000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>9574000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>6490000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>8987000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>7678000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>9616000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>6860000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5399000</v>
+      </c>
+      <c r="E58" s="3">
         <v>6783000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5866000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4728000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5243000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5397000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5748000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>10262000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>12712000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>10047000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8857000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>21923000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>19158000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3489000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3790000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5992000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5918000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>6009000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>6172000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3338000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4865000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>5698000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3687000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4533000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4545000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4317000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4368000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4337000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4303000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4863000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4511000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5713000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5830000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4722000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5023000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4715000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3434000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4591000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4459000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4788000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4292000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>6933000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4769000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4822000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4003000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>6295000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>29601000</v>
+      </c>
+      <c r="E60" s="3">
         <v>30037000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>31077000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>27413000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>26642000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>26546000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>26628000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>30917000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>35473000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>34797000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>31341000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>44593000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>44376000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>17619000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>17860000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>20214000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>19728000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>19875000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>19595000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>17094000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>17365000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>19317000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>16842000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>46624000</v>
+      </c>
+      <c r="E61" s="3">
         <v>47349000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>48540000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>51110000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>50903000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>52878000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>53188000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>54468000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>43052000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>38309000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>38129000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>36311000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>37803000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>17176000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>17084000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>17681000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>18766000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>20082000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>19119000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>18849000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>16788000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>14792000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>16483000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>22215000</v>
+      </c>
+      <c r="E62" s="3">
         <v>22332000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>21768000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>23084000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>23509000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>24406000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>24221000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>22639000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>23796000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>24040000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>21662000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>23318000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>26721000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9629000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9699000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9689000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9648000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9552000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>10923000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>10758000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>10387000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>10290000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>11385000</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4284,8 +4432,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4355,8 +4506,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4426,79 +4580,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>111817000</v>
+      </c>
+      <c r="E66" s="3">
         <v>113447000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>115056000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>115480000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>114710000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>117817000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>117966000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>121783000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>115887000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>111191000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>105107000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>119003000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>124404000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>49625000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>49825000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>52704000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>52792000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>54445000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>54474000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>50221000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>48023000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>48366000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>48768000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4524,8 +4684,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4595,8 +4756,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4666,8 +4830,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4737,8 +4904,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4808,79 +4978,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>42032000</v>
+      </c>
+      <c r="E72" s="3">
         <v>41547000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>40429000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>40311000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>39365000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>38456000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>38315000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>39004000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>43721000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>43202000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>42494000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>41382000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>41212000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>84887000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>82679000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>80364000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>78704000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>75763000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>72606000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>70863000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>69708000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>67327000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>66088000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4950,8 +5126,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5021,8 +5200,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5092,79 +5274,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>90636000</v>
+      </c>
+      <c r="E76" s="3">
         <v>89864000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>88553000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>86741000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>85540000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>84071000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>83583000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>85866000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>90407000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>89757000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>88877000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>90472000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>89938000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>50316000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>48773000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>46088000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>45151000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>43289000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>41315000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>42531000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>43784000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>43210000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>43265000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5234,155 +5422,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E80" s="2">
         <v>44562</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44471</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44380</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44289</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44198</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44107</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44009</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43918</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43827</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43736</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43645</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43554</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43463</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43372</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43099</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42917</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42826</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>470000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1104000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>159000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>918000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>901000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>17000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-710000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4721000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>460000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2107000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1054000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1760000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5452000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2788000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2322000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2916000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2937000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4423000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1747000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2366000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2388000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2479000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5408,79 +5605,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1287000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1269000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1275000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1266000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1272000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1298000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1335000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1379000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1333000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1298000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1296000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1304000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>828000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>732000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>794000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>744000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>731000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>742000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>708000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>711000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>676000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>687000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>689000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5550,8 +5751,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5621,8 +5825,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5692,8 +5899,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5763,8 +5973,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5834,79 +6047,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1765000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-201000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2635000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1460000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1388000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>84000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1667000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1160000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3180000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1611000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2020000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1393000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3880000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2099000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3853000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3679000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4526000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2237000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3512000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>4133000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3253000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1445000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3598000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5932,79 +6151,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1079000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-981000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1110000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-938000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-770000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-760000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-729000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-708000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1247000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1338000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1309000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1177000</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-1195000</v>
       </c>
       <c r="P91" s="3">
         <v>-1195000</v>
       </c>
       <c r="Q91" s="3">
+        <v>-1195000</v>
+      </c>
+      <c r="R91" s="3">
         <v>-1201000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1220000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1063000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-981000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-895000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-805000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1766000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2080000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2164000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6074,8 +6297,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6145,79 +6371,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1037000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-987000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1086000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-754000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-591000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-732000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-515000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-714000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1058000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1350000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>9667000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1102000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-11347000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1336000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-193000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1338000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2762000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1043000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-821000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-900000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1355000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1035000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1532000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6243,8 +6475,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6276,11 +6509,11 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-1585000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -6288,11 +6521,11 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-1249000</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -6300,11 +6533,11 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-1208000</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
@@ -6312,10 +6545,13 @@
         <v>0</v>
       </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-1145000</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6385,8 +6621,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6456,8 +6695,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6527,217 +6769,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1817000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-292000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1614000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-530000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1908000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-333000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-6439000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>8303000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5499000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1117000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-13444000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-342000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>13107000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-411000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3862000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2099000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2298000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-584000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-3167000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2743000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2062000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-987000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2900000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-81000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-35000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-47000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>7000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-69000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>139000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>87000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>27000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-117000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>41000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-145000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-28000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>119000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-44000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>26000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-106000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>34000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>21000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>54000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>46000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>43000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-112000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1170000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1515000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-112000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>183000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1180000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-842000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5200000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>8776000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7504000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1419000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1902000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2865000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>5759000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>308000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-176000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>136000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-500000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>631000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-422000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>536000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-121000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-689000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-617000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DIS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DIS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>DIS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,324 +665,336 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E7" s="2">
         <v>44653</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44562</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44471</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44380</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44289</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44198</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44107</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44009</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43918</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43827</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43736</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43645</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43554</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43463</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43372</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43099</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42917</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42826</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>21504000</v>
+      </c>
+      <c r="E8" s="3">
         <v>19249000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>21819000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>18534000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>17022000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>15613000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>16249000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>14707000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11779000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>18025000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>20877000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>19137000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>20245000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>14922000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>15303000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>14307000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>15228000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>14548000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>15351000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>12779000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>14238000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>13336000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>14784000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>13142000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>13682000</v>
+      </c>
+      <c r="E9" s="3">
         <v>12594000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>14567000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12341000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11233000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9782000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11775000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>11013000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7896000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11937000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>13034000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11865000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>12819000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8376000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>9001000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8108000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8348000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7533000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8737000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>7214000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>7717000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>6969000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>8406000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>7305000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7822000</v>
+      </c>
+      <c r="E10" s="3">
         <v>6655000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7252000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6193000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5789000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5831000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4474000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3694000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3883000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6088000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7843000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7272000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7426000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6546000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6302000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6199000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6880000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>7015000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6614000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5565000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>6521000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>6367000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>6378000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>5837000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1009,8 +1021,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1083,8 +1096,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1157,71 +1173,74 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E14" s="3">
         <v>195000</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>92000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-91000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>414000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>113000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>393000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5047000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>440000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>150000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>825000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>515000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-3948000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>5000</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>13000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>15000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>98000</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
@@ -1229,84 +1248,90 @@
         <v>0</v>
       </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1290000</v>
+      </c>
+      <c r="E15" s="3">
         <v>1287000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1269000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1275000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1266000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1272000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1298000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1335000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1377000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1334000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1299000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1303000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1304000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>828000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>732000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>794000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>744000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>731000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>742000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>708000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>711000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>676000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>687000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>689000</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1330,156 +1355,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>19114000</v>
+      </c>
+      <c r="E17" s="3">
         <v>17844000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>19627000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>17927000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>15576000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14581000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>16103000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>15553000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>16775000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>16809000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>18192000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>17698000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>18000000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7583000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11885000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>11229000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>11304000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10524000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>11573000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9993000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>10627000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>9586000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>11078000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>10312000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2390000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1405000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2192000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>607000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1446000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1032000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>146000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-846000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4996000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1216000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2685000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1439000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2245000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7339000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3418000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3078000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3924000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4024000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3778000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2786000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3611000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3750000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>3706000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2830000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1506,378 +1538,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>109000</v>
+      </c>
+      <c r="E20" s="3">
         <v>71000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-143000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>6000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-47000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>613000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>304000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>730000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>623000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>908000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>653000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>613000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>230000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>78000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>162000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>313000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>105000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>76000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>113000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>45000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>141000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>116000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>140000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3789000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2763000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3318000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1888000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2665000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2917000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1748000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1219000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2994000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3457000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4636000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3348000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3779000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>8245000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4312000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4185000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4773000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4831000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4633000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3539000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>4463000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>4542000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>4533000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>3689000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>380000</v>
+      </c>
+      <c r="E22" s="3">
         <v>374000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>361000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>323000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>404000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>415000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>404000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>464000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>467000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1073000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>712000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>815000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>457000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>180000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>149000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>189000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>175000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>172000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>146000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>137000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>134000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>115000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>121000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2119000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1102000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1688000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>290000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>995000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1230000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>46000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-580000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4840000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1051000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2626000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1237000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2018000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>7237000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3431000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3202000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3854000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3928000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3745000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2694000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3618000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3751000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>3725000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2881000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>617000</v>
+      </c>
+      <c r="E24" s="3">
         <v>505000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>488000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>34000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-133000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>108000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>16000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>49000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-331000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>523000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>458000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>339000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>395000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1647000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>679000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>683000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>895000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>913000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>872000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>829000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1144000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1212000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1237000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>989000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1950,156 +1998,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1502000</v>
+      </c>
+      <c r="E26" s="3">
         <v>597000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1200000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>256000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1128000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1122000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>30000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-629000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4509000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>528000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2168000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>898000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1623000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5590000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2752000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2519000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2959000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3015000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2873000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1865000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2474000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2539000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2488000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1892000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1409000</v>
+      </c>
+      <c r="E27" s="3">
         <v>470000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1152000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>160000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>923000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>912000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>29000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-710000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4718000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>468000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2128000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>769000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1437000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5431000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2754000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2422000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2816000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2837000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2823000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1747000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2366000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2388000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2479000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2172,8 +2229,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2181,58 +2241,58 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-48000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-1000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-5000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-11000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-12000</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-3000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-8000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-21000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>285000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>323000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>21000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>34000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-100000</v>
-      </c>
-      <c r="S29" s="3">
-        <v>100000</v>
       </c>
       <c r="T29" s="3">
         <v>100000</v>
       </c>
       <c r="U29" s="3">
+        <v>100000</v>
+      </c>
+      <c r="V29" s="3">
         <v>1600000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2246,8 +2306,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2320,8 +2383,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2394,156 +2460,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-109000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-71000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>143000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-6000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>47000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-613000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-304000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-730000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-623000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-908000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-653000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-613000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-230000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-78000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-162000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-313000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-105000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-76000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-113000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-45000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-141000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-116000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-140000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-170000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1409000</v>
+      </c>
+      <c r="E33" s="3">
         <v>470000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1104000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>159000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>918000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>901000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>17000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-710000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4721000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>460000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2107000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1054000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1760000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5452000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2788000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2322000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2916000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2937000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>4423000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1747000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2366000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2388000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2479000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2616,161 +2691,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1409000</v>
+      </c>
+      <c r="E35" s="3">
         <v>470000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1104000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>159000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>918000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>901000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>17000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-710000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4721000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>460000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2107000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1054000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1760000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5452000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2788000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2322000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2916000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2937000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>4423000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1747000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2366000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2388000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2479000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E38" s="2">
         <v>44653</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44562</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44471</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44380</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44289</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44198</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44107</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44009</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43918</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43827</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43736</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43645</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43554</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43463</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43372</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43099</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42917</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42826</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2797,8 +2881,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2825,82 +2910,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12959000</v>
+      </c>
+      <c r="E41" s="3">
         <v>13272000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14444000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>15959000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>16070000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15890000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>17068000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>17914000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>23115000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14339000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6833000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5418000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6728000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10208000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4455000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4150000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4326000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4179000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4677000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4017000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4336000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3800000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3736000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4610000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2973,526 +3062,550 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13685000</v>
+      </c>
+      <c r="E43" s="3">
         <v>13746000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>14882000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>13367000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>13355000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>12533000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>14051000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>12708000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>12622000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>14532000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>17100000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>15481000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>15673000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>14593000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>10123000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9334000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>10071000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>9678000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>9886000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>8633000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>9636000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>9293000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>9878000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>9065000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1590000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1428000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1345000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1331000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1344000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1406000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1480000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1583000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1559000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1531000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1571000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1649000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1516000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1445000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1357000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1392000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1322000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1301000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1307000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1373000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1300000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1304000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1299000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1390000</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3188000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2981000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2242000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3000000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3197000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3048000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2275000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3046000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4034000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2872000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2272000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5576000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7453000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>8031000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1602000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1949000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2010000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1650000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1404000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1866000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1879000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1873000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1752000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1901000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>31422000</v>
+      </c>
+      <c r="E46" s="3">
         <v>31427000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>32913000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>33657000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>33966000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>32877000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>34874000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>35251000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>41330000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>33274000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>27776000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>28124000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>31370000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>34277000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>17537000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16825000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>17729000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>16808000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>17274000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>15889000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>17151000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>16270000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>16665000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>16966000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3236000</v>
+      </c>
+      <c r="E47" s="3">
         <v>3356000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3549000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3935000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4045000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4309000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4037000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3903000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3611000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3180000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3312000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3224000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3872000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4080000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2970000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2899000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3155000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3148000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3206000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3202000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>4141000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>4187000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>4259000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>4280000</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>33583000</v>
+      </c>
+      <c r="E48" s="3">
         <v>32917000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>32681000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>32624000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>32377000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>32137000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>32263000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>36126000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>36137000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>36715000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>35503000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>31603000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>31392000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>31017000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>29797000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>29540000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>29373000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>29200000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>28584000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>28406000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>27733000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>27399000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>27054000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>27349000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>127356000</v>
+      </c>
+      <c r="E49" s="3">
         <v>126243000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>125295000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>124735000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>123325000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>122842000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>122371000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>121884000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>122382000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>129114000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>129522000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>126318000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>125467000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>126395000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>46213000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>45969000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>45882000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>46386000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>46297000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>45902000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>41430000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>41650000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>41257000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>41098000</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3565,8 +3678,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3639,82 +3755,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8477000</v>
+      </c>
+      <c r="E52" s="3">
         <v>8510000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8873000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8658000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8508000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8085000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8343000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4385000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4189000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4011000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4835000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4715000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>17374000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>18573000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3424000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3365000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2653000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2401000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2373000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2390000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2297000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2301000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2341000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2340000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3787,82 +3909,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>204074000</v>
+      </c>
+      <c r="E54" s="3">
         <v>202453000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>203311000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>203609000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>202221000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>200250000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>201888000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>201549000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>207649000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>206294000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>200948000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>193984000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>209475000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>214342000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>99941000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>98598000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>98792000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>97943000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>97734000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>95789000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>92752000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>91807000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>91576000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>92033000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3889,8 +4017,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3917,452 +4046,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>20858000</v>
+      </c>
+      <c r="E57" s="3">
         <v>19669000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>18709000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>20894000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>18317000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>17062000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>16846000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>16017000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>16144000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>17048000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>18920000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>17762000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>17647000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>20503000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>10696000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9479000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>9763000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>9022000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>9574000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>6490000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>8987000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>7678000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>9616000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>6860000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5580000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5399000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6783000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5866000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4728000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5243000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5397000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5748000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10262000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>12712000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>10047000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>8857000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>21923000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>19158000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3489000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3790000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5992000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5918000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>6009000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>6172000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3338000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4865000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>5698000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3687000</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4266000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4533000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4545000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4317000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4368000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4337000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4303000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4863000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4511000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5713000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5830000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4722000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5023000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4715000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3434000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4591000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4459000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4788000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4292000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>6933000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4769000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4822000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4003000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>6295000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>30704000</v>
+      </c>
+      <c r="E60" s="3">
         <v>29601000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>30037000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>31077000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>27413000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>26642000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>26546000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>26628000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>30917000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>35473000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>34797000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>31341000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>44593000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>44376000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>17619000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>17860000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>20214000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>19728000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>19875000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>19595000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>17094000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>17365000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>19317000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>16842000</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>46022000</v>
+      </c>
+      <c r="E61" s="3">
         <v>46624000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>47349000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>48540000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>51110000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>50903000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>52878000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>53188000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>54468000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>43052000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>38309000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>38129000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>36311000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>37803000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>17176000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>17084000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>17681000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>18766000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>20082000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>19119000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>18849000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>16788000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>14792000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>16483000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>21490000</v>
+      </c>
+      <c r="E62" s="3">
         <v>22215000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>22332000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>21768000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>23084000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>23509000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>24406000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>24221000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>22639000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>23796000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>24040000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>21662000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>23318000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>26721000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9629000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9699000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9689000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9648000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9552000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>10923000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>10758000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>10387000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>10290000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>11385000</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4435,8 +4583,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4509,8 +4660,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4583,82 +4737,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>111574000</v>
+      </c>
+      <c r="E66" s="3">
         <v>111817000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>113447000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>115056000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>115480000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>114710000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>117817000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>117966000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>121783000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>115887000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>111191000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>105107000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>119003000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>124404000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>49625000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>49825000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>52704000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>52792000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>54445000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>54474000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>50221000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>48023000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>48366000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>48768000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4685,8 +4845,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4759,8 +4920,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4833,8 +4997,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4907,8 +5074,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4981,82 +5151,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>43462000</v>
+      </c>
+      <c r="E72" s="3">
         <v>42032000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>41547000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>40429000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>40311000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>39365000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>38456000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>38315000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>39004000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>43721000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>43202000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>42494000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>41382000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>41212000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>84887000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>82679000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>80364000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>78704000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>75763000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>72606000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>70863000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>69708000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>67327000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>66088000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5129,8 +5305,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5203,8 +5382,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5277,82 +5459,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>92500000</v>
+      </c>
+      <c r="E76" s="3">
         <v>90636000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>89864000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>88553000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>86741000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>85540000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>84071000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>83583000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>85866000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>90407000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>89757000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>88877000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>90472000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>89938000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>50316000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>48773000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>46088000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>45151000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>43289000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>41315000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>42531000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>43784000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>43210000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>43265000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5425,161 +5613,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E80" s="2">
         <v>44653</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44562</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44471</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44380</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44289</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44198</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44107</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44009</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43918</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43827</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43736</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43645</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43554</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43463</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43372</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43099</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42917</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42826</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1409000</v>
+      </c>
+      <c r="E81" s="3">
         <v>470000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1104000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>159000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>918000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>901000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>17000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-710000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4721000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>460000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2107000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1054000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1760000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5452000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2788000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2322000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2916000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2937000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>4423000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1747000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2366000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2388000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2479000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5606,82 +5803,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1290000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1287000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1269000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1275000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1266000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1272000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1298000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1335000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1379000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1333000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1298000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1296000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1304000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>828000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>732000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>794000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>744000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>731000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>742000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>708000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>711000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>676000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>687000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>689000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5754,8 +5955,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5828,8 +6032,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5902,8 +6109,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5976,8 +6186,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6050,82 +6263,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1922000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1765000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-201000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2635000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1460000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1388000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>84000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1667000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1160000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3180000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1611000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2020000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1393000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3880000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2099000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3853000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3679000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>4526000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2237000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3512000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>4133000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3253000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1445000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>3598000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6152,82 +6371,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1735000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1079000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-981000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1110000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-938000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-770000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-760000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-729000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-708000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1247000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1338000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1309000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1177000</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-1195000</v>
       </c>
       <c r="Q91" s="3">
         <v>-1195000</v>
       </c>
       <c r="R91" s="3">
+        <v>-1195000</v>
+      </c>
+      <c r="S91" s="3">
         <v>-1201000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1220000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1063000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-981000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-895000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-805000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1766000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2080000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2164000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6300,8 +6523,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6374,82 +6600,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1848000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1037000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-987000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1086000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-754000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-591000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-732000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-515000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-714000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1058000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1350000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>9667000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1102000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-11347000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1336000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-193000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1338000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2762000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1043000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-821000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-900000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1355000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1035000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1532000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6476,8 +6708,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6512,11 +6745,11 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1585000</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -6524,11 +6757,11 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-1249000</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
@@ -6536,11 +6769,11 @@
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-1208000</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
@@ -6548,10 +6781,13 @@
         <v>0</v>
       </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-1145000</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6624,8 +6860,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6698,8 +6937,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6772,226 +7014,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-150000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1817000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-292000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1614000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-530000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1908000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-333000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-6439000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>8303000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5499000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1117000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-13444000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-342000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>13107000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-411000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3862000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2099000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2298000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-584000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-3167000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2743000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2062000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-987000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-2900000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-238000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-81000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-35000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-47000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>7000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-69000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>139000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>87000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>27000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-117000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>41000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-145000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-28000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>119000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-44000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>26000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-106000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>34000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>21000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>54000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>46000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>43000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-112000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-314000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1170000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1515000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-112000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>183000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1180000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-842000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5200000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>8776000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>7504000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1419000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1902000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2865000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>5759000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>308000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-176000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>136000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-500000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>631000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-422000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>536000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-121000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-689000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-617000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DIS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DIS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>DIS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,336 +665,360 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44835</v>
+      </c>
+      <c r="F7" s="2">
         <v>44744</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44653</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44562</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44471</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44380</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44289</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44198</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44107</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43827</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43736</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43645</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43554</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43463</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43372</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43099</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42917</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42826</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>23512000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20150000</v>
+      </c>
+      <c r="F8" s="3">
         <v>21504000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>19249000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>21819000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>18534000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>17022000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>15613000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>16249000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>14707000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>11779000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>18025000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>20877000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>19137000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>20245000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>14922000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>15303000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>14307000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>15228000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>14548000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>15351000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>12779000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>14238000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>13336000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>14784000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>13142000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>16386000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>13558000</v>
+      </c>
+      <c r="F9" s="3">
         <v>13682000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>12594000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>14567000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>12341000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>11233000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>9782000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>11775000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>11013000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>7896000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>11937000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>13034000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>11865000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>12819000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>8376000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>9001000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>8108000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>8348000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>7533000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>8737000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>7214000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>7717000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>6969000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>8406000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>7305000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7126000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6592000</v>
+      </c>
+      <c r="F10" s="3">
         <v>7822000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>6655000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>7252000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>6193000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>5789000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>5831000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>4474000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>3694000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>3883000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>6088000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>7843000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>7272000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>7426000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>6546000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>6302000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>6199000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>6880000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>7015000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>6614000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>5565000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>6521000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>6367000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>6378000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>5837000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1022,8 +1046,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1099,8 +1125,14 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1176,162 +1208,180 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>42000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>195000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>92000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-91000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>414000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>113000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>393000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>5047000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>440000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>150000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>825000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>515000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>-3948000</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>5000</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>13000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>15000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>98000</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
         <v>0</v>
       </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1306000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1317000</v>
+      </c>
+      <c r="F15" s="3">
         <v>1290000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>1287000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>1269000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>1275000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>1266000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>1272000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>1298000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>1335000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>1377000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>1334000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>1299000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>1303000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>1304000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>828000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>732000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>794000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>744000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>731000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>742000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>708000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>711000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>676000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>687000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>689000</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1356,162 +1406,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>21560000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>19608000</v>
+      </c>
+      <c r="F17" s="3">
         <v>19114000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>17844000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>19627000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>17927000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>15576000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>14581000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>16103000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>15553000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>16775000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>16809000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>18192000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>17698000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>18000000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>7583000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>11885000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>11229000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>11304000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>10524000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>11573000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>9993000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>10627000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>9586000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>11078000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>10312000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1952000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>542000</v>
+      </c>
+      <c r="F18" s="3">
         <v>2390000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>1405000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>2192000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>607000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>1446000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>1032000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>146000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-846000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-4996000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1216000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>2685000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1439000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>2245000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>7339000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>3418000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>3078000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>3924000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>4024000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>3778000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>2786000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>3611000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>3750000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>3706000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>2830000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1539,393 +1603,425 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>286000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>268000</v>
+      </c>
+      <c r="F20" s="3">
         <v>109000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>71000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-143000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>6000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-47000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>613000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>304000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>730000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>623000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>908000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>653000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>613000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>230000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>78000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>162000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>313000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>105000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>76000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>113000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>45000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>141000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>116000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>140000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3544000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2127000</v>
+      </c>
+      <c r="F21" s="3">
         <v>3789000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>2763000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>3318000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1888000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>2665000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>2917000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1748000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1219000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-2994000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>3457000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>4636000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>3348000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>3779000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>8245000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>4312000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>4185000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>4773000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>4831000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>4633000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>3539000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>4463000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>4542000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>4533000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>3689000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>465000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>434000</v>
+      </c>
+      <c r="F22" s="3">
         <v>380000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>374000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>361000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>323000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>404000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>415000</v>
       </c>
       <c r="J22" s="3">
         <v>404000</v>
       </c>
       <c r="K22" s="3">
+        <v>415000</v>
+      </c>
+      <c r="L22" s="3">
+        <v>404000</v>
+      </c>
+      <c r="M22" s="3">
         <v>464000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>467000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>1073000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>712000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>815000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>457000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>180000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>149000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>189000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>175000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>172000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>146000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>137000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>134000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>115000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>121000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1773000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>376000</v>
+      </c>
+      <c r="F23" s="3">
         <v>2119000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1102000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1688000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>290000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>995000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>1230000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>46000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-580000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-4840000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1051000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>2626000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1237000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>2018000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>7237000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>3431000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>3202000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>3854000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>3928000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>3745000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>2694000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>3618000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>3751000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>3725000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>2881000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>412000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>122000</v>
+      </c>
+      <c r="F24" s="3">
         <v>617000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>505000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>488000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>34000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-133000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>108000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>16000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>49000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-331000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>523000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>458000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>339000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>395000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>1647000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>679000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>683000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>895000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>913000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>872000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>829000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>1144000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>1212000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>1237000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>989000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2001,162 +2097,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1361000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>254000</v>
+      </c>
+      <c r="F26" s="3">
         <v>1502000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>597000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1200000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>256000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1128000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1122000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>30000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-629000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-4509000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>528000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>2168000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>898000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1623000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>5590000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>2752000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>2519000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>2959000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>3015000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>2873000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>1865000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>2474000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>2539000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>2488000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>1892000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1279000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>162000</v>
+      </c>
+      <c r="F27" s="3">
         <v>1409000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>470000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1152000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>160000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>923000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>912000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>29000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-710000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-4718000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>468000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>2128000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>769000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1437000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>5431000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>2754000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>2422000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>2816000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>2837000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>2823000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>1747000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>2366000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>2388000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>2479000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2232,8 +2346,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2244,61 +2364,61 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-48000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="I29" s="3">
         <v>-1000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>-5000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>-11000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-12000</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-3000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>-8000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>-21000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>285000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>323000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>21000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>34000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="U29" s="3">
         <v>-100000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>100000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="W29" s="3">
         <v>100000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="X29" s="3">
         <v>1600000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2309,8 +2429,14 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2386,8 +2512,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2463,162 +2595,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-286000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-268000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-109000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-71000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>143000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-6000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>47000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-613000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-304000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-730000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-623000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-908000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-653000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-613000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-230000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-78000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-162000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-313000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-105000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-76000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-113000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-45000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-141000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-116000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-140000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-170000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1279000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>162000</v>
+      </c>
+      <c r="F33" s="3">
         <v>1409000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>470000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>1104000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>159000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>918000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>901000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>17000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-710000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-4721000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>460000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>2107000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1054000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1760000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>5452000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>2788000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>2322000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>2916000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>2937000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>4423000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>1747000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>2366000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>2388000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>2479000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2694,167 +2844,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1279000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>162000</v>
+      </c>
+      <c r="F35" s="3">
         <v>1409000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>470000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1104000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>159000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>918000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>901000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>17000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-710000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-4721000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>460000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>2107000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1054000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1760000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>5452000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>2788000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>2322000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>2916000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>2937000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>4423000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>1747000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>2366000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>2388000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>2479000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44835</v>
+      </c>
+      <c r="F38" s="2">
         <v>44744</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44653</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44562</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44471</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44380</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44289</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44198</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44107</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43827</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43736</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43645</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43554</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43463</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43372</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43099</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42917</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42826</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2882,8 +3050,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2911,85 +3081,93 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8470000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>11615000</v>
+      </c>
+      <c r="F41" s="3">
         <v>12959000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>13272000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>14444000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>15959000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>16070000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>15890000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>17068000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>17914000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>23115000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>14339000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>6833000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>5418000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>6728000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>10208000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>4455000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>4150000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>4326000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>4179000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>4677000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>4017000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>4336000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>3800000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>3736000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>4610000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3065,547 +3243,595 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13993000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>12652000</v>
+      </c>
+      <c r="F43" s="3">
         <v>13685000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>13746000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>14882000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>13367000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>13355000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>12533000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>14051000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>12708000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>12622000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>14532000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>17100000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>15481000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>15673000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>14593000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>10123000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>9334000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>10071000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>9678000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>9886000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>8633000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>9636000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>9293000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>9878000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>9065000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1830000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1742000</v>
+      </c>
+      <c r="F44" s="3">
         <v>1590000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1428000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1345000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1331000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1344000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1406000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1480000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1583000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1559000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1531000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1571000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1649000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1516000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1445000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>1357000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>1392000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>1322000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>1301000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>1307000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>1373000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>1300000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>1304000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>1299000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>1390000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2619000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3089000</v>
+      </c>
+      <c r="F45" s="3">
         <v>3188000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2981000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2242000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>3000000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>3197000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>3048000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2275000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>3046000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>4034000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>2872000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>2272000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>5576000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>7453000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>8031000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1602000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>1949000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>2010000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>1650000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>1404000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>1866000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>1879000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>1873000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>1752000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>1901000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>26912000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>29098000</v>
+      </c>
+      <c r="F46" s="3">
         <v>31422000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>31427000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>32913000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>33657000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>33966000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>32877000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>34874000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>35251000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>41330000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>33274000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>27776000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>28124000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>31370000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>34277000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>17537000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>16825000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>17729000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>16808000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>17274000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>15889000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>17151000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>16270000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>16665000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>16966000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3169000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>3218000</v>
+      </c>
+      <c r="F47" s="3">
         <v>3236000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>3356000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>3549000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>3935000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>4045000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>4309000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>4037000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>3903000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>3611000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>3180000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>3312000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>3224000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>3872000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>4080000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>2970000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>2899000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>3155000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>3148000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>3206000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>3202000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>4141000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>4187000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>4259000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>4280000</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>34200000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>37865000</v>
+      </c>
+      <c r="F48" s="3">
         <v>33583000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>32917000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>32681000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>32624000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>32377000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>32137000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>32263000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>36126000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>36137000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>36715000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>35503000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>31603000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>31392000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>31017000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>29797000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>29540000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>29373000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>29200000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>28584000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>28406000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>27733000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>27399000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>27054000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>27349000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>128480000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>128511000</v>
+      </c>
+      <c r="F49" s="3">
         <v>127356000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>126243000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>125295000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>124735000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>123325000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>122842000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>122371000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>121884000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>122382000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>129114000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>129522000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>126318000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>125467000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>126395000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>46213000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>45969000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>45882000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>46386000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>46297000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>45902000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>41430000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>41650000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>41257000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>41098000</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3681,8 +3907,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3758,85 +3990,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9363000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>4939000</v>
+      </c>
+      <c r="F52" s="3">
         <v>8477000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>8510000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>8873000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>8658000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>8508000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>8085000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>8343000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>4385000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>4189000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>4011000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>4835000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>4715000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>17374000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>18573000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>3424000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>3365000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>2653000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>2401000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>2373000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>2390000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>2297000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>2301000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>2341000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>2340000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3912,85 +4156,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>202124000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>203631000</v>
+      </c>
+      <c r="F54" s="3">
         <v>204074000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>202453000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>203311000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>203609000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>202221000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>200250000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>201888000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>201549000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>207649000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>206294000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>200948000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>193984000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>209475000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>214342000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>99941000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>98598000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>98792000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>97943000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>97734000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>95789000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>92752000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>91807000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>91576000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>92033000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4018,8 +4274,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4047,470 +4305,508 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>18149000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>20213000</v>
+      </c>
+      <c r="F57" s="3">
         <v>20858000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>19669000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>18709000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>20894000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>18317000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>17062000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>16846000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>16017000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>16144000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>17048000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>18920000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>17762000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>17647000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>20503000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>10696000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>9479000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>9763000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>9022000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>9574000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>6490000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>8987000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>7678000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>9616000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>6860000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3249000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3070000</v>
+      </c>
+      <c r="F58" s="3">
         <v>5580000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>5399000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>6783000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>5866000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>4728000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>5243000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>5397000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>5748000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>10262000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>12712000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>10047000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>8857000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>21923000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>19158000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>3489000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>3790000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>5992000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>5918000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>6009000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>6172000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>3338000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>4865000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>5698000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>3687000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5672000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5790000</v>
+      </c>
+      <c r="F59" s="3">
         <v>4266000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>4533000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4545000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>4317000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>4368000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>4337000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>4303000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4863000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>4511000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>5713000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>5830000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>4722000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>5023000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>4715000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>3434000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>4591000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>4459000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>4788000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>4292000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>6933000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>4769000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>4822000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>4003000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>6295000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>27070000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>29073000</v>
+      </c>
+      <c r="F60" s="3">
         <v>30704000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>29601000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>30037000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>31077000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>27413000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>26642000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>26546000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>26628000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>30917000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>35473000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>34797000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>31341000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>44593000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>44376000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>17619000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>17860000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>20214000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>19728000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>19875000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>19595000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>17094000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>17365000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>19317000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>16842000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>45128000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>45299000</v>
+      </c>
+      <c r="F61" s="3">
         <v>46022000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>46624000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>47349000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>48540000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>51110000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>50903000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>52878000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>53188000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>54468000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>43052000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>38309000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>38129000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>36311000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>37803000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>17176000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>17084000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>17681000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>18766000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>20082000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>19119000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>18849000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>16788000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>14792000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>16483000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>21048000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>20881000</v>
+      </c>
+      <c r="F62" s="3">
         <v>21490000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>22215000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>22332000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>21768000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>23084000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>23509000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>24406000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>24221000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>22639000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>23796000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>24040000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>21662000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>23318000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>26721000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>9629000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>9699000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>9689000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>9648000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>9552000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>10923000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>10758000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>10387000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>10290000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>11385000</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4586,8 +4882,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4663,8 +4965,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4740,85 +5048,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>105975000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>108623000</v>
+      </c>
+      <c r="F66" s="3">
         <v>111574000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>111817000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>113447000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>115056000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>115480000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>114710000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>117817000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>117966000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>121783000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>115887000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>111191000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>105107000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>119003000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>124404000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>49625000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>49825000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>52704000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>52792000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>54445000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>54474000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>50221000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>48023000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>48366000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>48768000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4846,8 +5166,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4923,8 +5245,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5000,8 +5328,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5077,8 +5411,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5154,85 +5494,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>44955000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>43636000</v>
+      </c>
+      <c r="F72" s="3">
         <v>43462000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>42032000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>41547000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>40429000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>40311000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>39365000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>38456000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>38315000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>39004000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>43721000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>43202000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>42494000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>41382000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>41212000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>84887000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>82679000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>80364000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>78704000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>75763000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>72606000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>70863000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>69708000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>67327000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>66088000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5308,8 +5660,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5385,8 +5743,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5462,85 +5826,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>96149000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>95008000</v>
+      </c>
+      <c r="F76" s="3">
         <v>92500000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>90636000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>89864000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>88553000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>86741000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>85540000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>84071000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>83583000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>85866000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>90407000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>89757000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>88877000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>90472000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>89938000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>50316000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>48773000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>46088000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>45151000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>43289000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>41315000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>42531000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>43784000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>43210000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>43265000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5616,167 +5992,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44835</v>
+      </c>
+      <c r="F80" s="2">
         <v>44744</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44653</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44562</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44471</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44380</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44289</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44198</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44107</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43827</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43736</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43645</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43554</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43463</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43372</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43099</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42917</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42826</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1279000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>162000</v>
+      </c>
+      <c r="F81" s="3">
         <v>1409000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>470000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>1104000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>159000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>918000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>901000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>17000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-710000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-4721000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>460000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>2107000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1054000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1760000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>5452000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>2788000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>2322000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>2916000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>2937000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>4423000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>1747000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>2366000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>2388000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>2479000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5804,85 +6198,93 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1306000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1317000</v>
+      </c>
+      <c r="F83" s="3">
         <v>1290000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>1287000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>1269000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>1275000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>1266000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>1272000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>1298000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>1335000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>1379000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>1333000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>1298000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>1296000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>1304000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>828000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>732000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>794000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>744000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>731000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>742000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>708000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>711000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>676000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>687000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>689000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5958,8 +6360,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6035,8 +6443,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6112,8 +6526,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6189,8 +6609,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6266,85 +6692,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-974000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>2524000</v>
+      </c>
+      <c r="F89" s="3">
         <v>1922000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1765000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-201000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>2635000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>1460000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>1388000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>84000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1667000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1160000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>3180000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1611000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>2020000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1393000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>3880000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>2099000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>3853000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>3679000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>4526000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>2237000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>3512000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>4133000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>3253000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>1445000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>3598000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6372,85 +6810,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1181000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1148000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1735000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1079000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-981000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1110000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-938000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-770000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-760000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-729000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-708000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1247000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-1338000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-1309000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-1177000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-1195000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-1195000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-1201000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-1220000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-1063000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-981000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-895000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-805000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-1766000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-2080000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-2164000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6526,8 +6972,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6603,85 +7055,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1292000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1136000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1848000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1037000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-987000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-1086000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-754000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-591000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-732000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-515000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-714000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1058000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1350000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>9667000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1102000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-11347000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-1336000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-193000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-1338000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-2762000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-1043000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-821000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-900000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-1355000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-1035000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-1532000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6709,8 +7173,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6748,46 +7214,52 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1585000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-1249000</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-1208000</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
         <v>0</v>
       </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-1145000</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6863,8 +7335,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6940,8 +7418,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7017,235 +7501,259 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1043000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-2482000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-150000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1817000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-292000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-1614000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-530000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-1908000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-333000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-6439000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>8303000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>5499000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1117000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-13444000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-342000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>13107000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-411000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-3862000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-2099000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-2298000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-584000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-3167000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-2743000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-2062000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-987000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-2900000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>164000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-249000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-238000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-81000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-35000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-47000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>7000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-69000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>139000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>87000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>27000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-117000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>41000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-145000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>119000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-44000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>26000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-106000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>34000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>21000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>54000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>46000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>43000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>-112000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3145000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1343000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-314000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1170000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1515000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-112000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>183000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-1180000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-842000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-5200000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>8776000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>7504000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1419000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-1902000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-2865000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>5759000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>308000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-176000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>136000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-500000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>631000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-422000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>536000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-121000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-689000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-617000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DIS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DIS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>DIS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,360 +665,372 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44835</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44744</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44653</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44562</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44471</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44380</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44289</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44198</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44107</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43827</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43736</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43645</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43554</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43463</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43372</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43099</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42917</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42826</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>21815000</v>
+      </c>
+      <c r="E8" s="3">
         <v>23512000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>20150000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>21504000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>19249000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>21819000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>18534000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>17022000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15613000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16249000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14707000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11779000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>18025000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>20877000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>19137000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>20245000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>14922000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>15303000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>14307000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>15228000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>14548000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>15351000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>12779000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>14238000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>13336000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>14784000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>13142000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>14616000</v>
+      </c>
+      <c r="E9" s="3">
         <v>16386000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>13558000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>13682000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12594000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>14567000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>12341000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>11233000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9782000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11775000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11013000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7896000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11937000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>13034000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>11865000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>12819000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8376000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>9001000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8108000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8348000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>7533000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>8737000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>7214000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>7717000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>6969000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>8406000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>7305000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7199000</v>
+      </c>
+      <c r="E10" s="3">
         <v>7126000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6592000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7822000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6655000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7252000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6193000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5789000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5831000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4474000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3694000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3883000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6088000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7843000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7272000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>7426000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6546000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6302000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6199000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6880000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>7015000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>6614000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>5565000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>6521000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>6367000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>6378000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>5837000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1048,8 +1060,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1131,8 +1144,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1214,80 +1230,83 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>152000</v>
+      </c>
+      <c r="E14" s="3">
         <v>69000</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>42000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>195000</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>92000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-91000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>414000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>113000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>393000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>5047000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>440000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>150000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>825000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>515000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-3948000</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>5000</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>13000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>15000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>98000</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
         <v>0</v>
       </c>
@@ -1295,93 +1314,99 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1310000</v>
+      </c>
+      <c r="E15" s="3">
         <v>1306000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1317000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1290000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1287000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1269000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1275000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1266000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1272000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1298000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1335000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1377000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1334000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1299000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1303000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>1304000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>828000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>732000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>794000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>744000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>731000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>742000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>708000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>711000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>676000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>687000</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>689000</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1408,174 +1433,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>19692000</v>
+      </c>
+      <c r="E17" s="3">
         <v>21560000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>19608000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>19114000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>17844000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>19627000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>17927000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>15576000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14581000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>16103000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>15553000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>16775000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>16809000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>18192000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>17698000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>18000000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7583000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>11885000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>11229000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>11304000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>10524000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>11573000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>9993000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>10627000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>9586000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>11078000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>10312000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2123000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1952000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>542000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2390000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1405000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2192000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>607000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1446000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1032000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>146000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-846000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4996000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1216000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2685000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1439000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2245000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>7339000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3418000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3078000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3924000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>4024000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3778000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2786000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>3611000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>3750000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>3706000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>2830000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1605,423 +1637,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>504000</v>
+      </c>
+      <c r="E20" s="3">
         <v>286000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>268000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>109000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>71000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-143000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>6000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-47000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>613000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>304000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>730000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>623000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>908000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>653000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>613000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>230000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>78000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>162000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>313000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>105000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>76000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>113000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>45000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>141000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>116000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>140000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3937000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3544000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2127000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3789000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2763000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3318000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1888000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2665000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2917000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1748000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1219000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2994000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3457000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4636000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3348000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3779000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>8245000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4312000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4185000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>4773000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>4831000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>4633000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>3539000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>4463000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>4542000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>4533000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>3689000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>504000</v>
+      </c>
+      <c r="E22" s="3">
         <v>465000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>434000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>380000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>374000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>361000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>323000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>404000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>415000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>404000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>464000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>467000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1073000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>712000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>815000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>457000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>180000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>149000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>189000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>175000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>172000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>146000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>137000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>134000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>115000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>121000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2123000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1773000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>376000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2119000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1102000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1688000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>290000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>995000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1230000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>46000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-580000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4840000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1051000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2626000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1237000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2018000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>7237000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3431000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3202000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3854000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3928000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3745000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2694000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>3618000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>3751000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>3725000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>2881000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>635000</v>
+      </c>
+      <c r="E24" s="3">
         <v>412000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>122000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>617000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>505000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>488000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>34000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-133000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>108000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>16000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>49000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-331000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>523000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>458000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>339000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>395000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1647000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>679000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>683000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>895000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>913000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>872000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>829000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1144000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1212000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>1237000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>989000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2103,174 +2151,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1488000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1361000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>254000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1502000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>597000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1200000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>256000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1128000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1122000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>30000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-629000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4509000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>528000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2168000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>898000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1623000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5590000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2752000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2519000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2959000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3015000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2873000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1865000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2474000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>2539000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>2488000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>1892000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1271000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1279000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>162000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1409000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>470000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1152000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>160000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>923000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>912000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>29000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-710000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4718000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>468000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2128000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>769000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1437000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>5431000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2754000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2422000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2816000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2837000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2823000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1747000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>2366000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>2388000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>2479000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2352,8 +2409,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2370,58 +2430,58 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-48000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-1000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-5000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-11000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-12000</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-3000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-8000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>285000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>323000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>21000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>34000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-100000</v>
-      </c>
-      <c r="V29" s="3">
-        <v>100000</v>
       </c>
       <c r="W29" s="3">
         <v>100000</v>
       </c>
       <c r="X29" s="3">
+        <v>100000</v>
+      </c>
+      <c r="Y29" s="3">
         <v>1600000</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2435,8 +2495,11 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2518,8 +2581,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2601,174 +2667,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-504000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-286000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-268000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-109000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-71000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>143000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-6000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>47000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-613000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-304000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-730000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-623000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-908000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-653000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-613000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-230000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-78000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-162000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-313000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-105000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-76000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-113000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-45000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-141000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-116000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-140000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-170000</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1271000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1279000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>162000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1409000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>470000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1104000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>159000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>918000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>901000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>17000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-710000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4721000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>460000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2107000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1054000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1760000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>5452000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2788000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2322000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2916000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2937000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>4423000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1747000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>2366000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>2388000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>2479000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2850,179 +2925,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1271000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1279000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>162000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1409000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>470000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1104000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>159000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>918000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>901000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>17000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-710000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4721000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>460000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2107000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1054000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1760000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>5452000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2788000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2322000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2916000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2937000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>4423000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1747000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>2366000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>2388000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>2479000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44835</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44744</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44653</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44562</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44471</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44380</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44289</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44198</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44107</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43827</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43736</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43645</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43554</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43463</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43372</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43099</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42917</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42826</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3052,8 +3136,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3083,91 +3168,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10399000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8470000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11615000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12959000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13272000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>14444000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15959000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>16070000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15890000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>17068000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>17914000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>23115000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>14339000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6833000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5418000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6728000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10208000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4455000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4150000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4326000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4179000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4677000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4017000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4336000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3800000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>3736000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>4610000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3249,589 +3338,613 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12770000</v>
+      </c>
+      <c r="E43" s="3">
         <v>13993000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>12652000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>13685000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>13746000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>14882000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>13367000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>13355000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>12533000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>14051000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>12708000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>12622000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>14532000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>17100000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>15481000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>15673000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>14593000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>10123000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>9334000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>10071000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>9678000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>9886000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>8633000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>9636000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>9293000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>9878000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>9065000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1848000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1830000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1742000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1590000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1428000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1345000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1331000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1344000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1406000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1480000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1583000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1559000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1531000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1571000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1649000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1516000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1445000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1357000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1392000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1322000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1301000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1307000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1373000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1300000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1304000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1299000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1390000</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3246000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2619000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3089000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3188000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2981000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2242000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3000000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3197000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3048000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2275000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3046000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4034000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2872000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2272000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5576000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>7453000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>8031000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1602000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1949000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2010000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1650000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1404000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1866000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1879000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1873000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1752000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1901000</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>28263000</v>
+      </c>
+      <c r="E46" s="3">
         <v>26912000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>29098000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>31422000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>31427000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>32913000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>33657000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>33966000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>32877000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>34874000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>35251000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>41330000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>33274000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>27776000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>28124000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>31370000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>34277000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>17537000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>16825000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>17729000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>16808000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>17274000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>15889000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>17151000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>16270000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>16665000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>16966000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3387000</v>
+      </c>
+      <c r="E47" s="3">
         <v>3169000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3218000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3236000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3356000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3549000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3935000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4045000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4309000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4037000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3903000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3611000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3180000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3312000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3224000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3872000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4080000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2970000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2899000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3155000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>3148000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>3206000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>3202000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>4141000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>4187000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>4259000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>4280000</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>34579000</v>
+      </c>
+      <c r="E48" s="3">
         <v>34200000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>37865000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>33583000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>32917000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>32681000</v>
       </c>
-      <c r="I48" s="3">
-        <v>32624000</v>
-      </c>
       <c r="J48" s="3">
+        <v>36855000</v>
+      </c>
+      <c r="K48" s="3">
         <v>32377000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>32137000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>32263000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>36126000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>36137000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>36715000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>35503000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>31603000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>31392000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>31017000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>29797000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>29540000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>29373000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>29200000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>28584000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>28406000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>27733000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>27399000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>27054000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>27349000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>128714000</v>
+      </c>
+      <c r="E49" s="3">
         <v>128480000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>128511000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>127356000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>126243000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>125295000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>124735000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>123325000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>122842000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>122371000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>121884000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>122382000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>129114000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>129522000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>126318000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>125467000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>126395000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>46213000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>45969000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>45882000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>46386000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>46297000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>45902000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>41430000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>41650000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>41257000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>41098000</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3913,8 +4026,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3996,91 +4112,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9915000</v>
+      </c>
+      <c r="E52" s="3">
         <v>9363000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4939000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8477000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8510000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8873000</v>
       </c>
-      <c r="I52" s="3">
-        <v>8658000</v>
-      </c>
       <c r="J52" s="3">
+        <v>4427000</v>
+      </c>
+      <c r="K52" s="3">
         <v>8508000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8085000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8343000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4385000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4189000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4011000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4835000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4715000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>17374000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>18573000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3424000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3365000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2653000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2401000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2373000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2390000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2297000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>2301000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>2341000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>2340000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4162,91 +4284,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>204858000</v>
+      </c>
+      <c r="E54" s="3">
         <v>202124000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>203631000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>204074000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>202453000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>203311000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>203609000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>202221000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>200250000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>201888000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>201549000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>207649000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>206294000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>200948000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>193984000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>209475000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>214342000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>99941000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>98598000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>98792000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>97943000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>97734000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>95789000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>92752000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>91807000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>91576000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>92033000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4276,8 +4404,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4307,506 +4436,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>18591000</v>
+      </c>
+      <c r="E57" s="3">
         <v>18149000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>20213000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>20858000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>19669000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>18709000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>20894000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>18317000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>17062000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16846000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>16017000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>16144000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>17048000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>18920000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>17762000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>17647000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>20503000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>10696000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>9479000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>9763000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>9022000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>9574000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>6490000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>8987000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>7678000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>9616000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>6860000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3452000</v>
+      </c>
+      <c r="E58" s="3">
         <v>3249000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3070000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5580000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5399000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6783000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5866000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4728000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5243000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5397000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5748000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>10262000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>12712000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>10047000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>8857000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>21923000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>19158000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3489000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3790000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5992000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>5918000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>6009000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>6172000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3338000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>4865000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>5698000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>3687000</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6013000</v>
+      </c>
+      <c r="E59" s="3">
         <v>5672000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5790000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4266000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4533000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4545000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4317000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4368000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4337000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4303000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4863000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4511000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5713000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5830000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4722000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5023000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4715000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3434000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4591000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4459000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4788000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4292000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>6933000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>4769000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>4822000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>4003000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>6295000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>28056000</v>
+      </c>
+      <c r="E60" s="3">
         <v>27070000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>29073000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>30704000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>29601000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>30037000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>31077000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>27413000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>26642000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>26546000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>26628000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>30917000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>35473000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>34797000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>31341000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>44593000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>44376000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>17619000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>17860000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>20214000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>19728000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>19875000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>19595000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>17094000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>17365000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>19317000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>16842000</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>45066000</v>
+      </c>
+      <c r="E61" s="3">
         <v>45128000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>45299000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>46022000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>46624000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>47349000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>48540000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>51110000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>50903000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>52878000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>53188000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>54468000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>43052000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>38309000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>38129000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>36311000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>37803000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>17176000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>17084000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>17681000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>18766000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>20082000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>19119000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>18849000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>16788000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>14792000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>16483000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>21366000</v>
+      </c>
+      <c r="E62" s="3">
         <v>21048000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>20881000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>21490000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>22215000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>22332000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>21768000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>23084000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>23509000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>24406000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>24221000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>22639000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>23796000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>24040000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>21662000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>23318000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>26721000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9629000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9699000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>9689000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>9648000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>9552000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>10923000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>10758000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>10387000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>10290000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>11385000</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4888,8 +5036,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4971,8 +5122,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5054,91 +5208,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>106999000</v>
+      </c>
+      <c r="E66" s="3">
         <v>105975000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>108623000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>111574000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>111817000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>113447000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>115056000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>115480000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>114710000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>117817000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>117966000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>121783000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>115887000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>111191000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>105107000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>119003000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>124404000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>49625000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>49825000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>52704000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>52792000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>54445000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>54474000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>50221000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>48023000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>48366000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>48768000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5168,8 +5328,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5251,8 +5412,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5334,8 +5498,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5417,8 +5584,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5500,91 +5670,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>46236000</v>
+      </c>
+      <c r="E72" s="3">
         <v>44955000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>43636000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>43462000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>42032000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>41547000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>40429000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>40311000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>39365000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>38456000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>38315000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>39004000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>43721000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>43202000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>42494000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>41382000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>41212000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>84887000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>82679000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>80364000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>78704000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>75763000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>72606000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>70863000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>69708000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>67327000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>66088000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5666,8 +5842,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5749,8 +5928,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5832,91 +6014,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>97859000</v>
+      </c>
+      <c r="E76" s="3">
         <v>96149000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>95008000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>92500000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>90636000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>89864000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>88553000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>86741000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>85540000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>84071000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>83583000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>85866000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>90407000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>89757000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>88877000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>90472000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>89938000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>50316000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>48773000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>46088000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>45151000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>43289000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>41315000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>42531000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>43784000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>43210000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>43265000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5998,179 +6186,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44835</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44744</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44653</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44562</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44471</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44380</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44289</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44198</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44107</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43827</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43736</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43645</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43554</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43463</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43372</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43099</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42917</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42826</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1271000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1279000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>162000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1409000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>470000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1104000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>159000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>918000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>901000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>17000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-710000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4721000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>460000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2107000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1054000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1760000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>5452000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2788000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2322000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2916000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2937000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>4423000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1747000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>2366000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>2388000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>2479000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6200,91 +6397,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1310000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1306000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1317000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1290000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1287000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1269000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1275000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1266000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1272000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1298000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1335000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1379000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1333000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1298000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1296000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1304000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>828000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>732000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>794000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>744000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>731000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>742000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>708000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>711000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>676000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>687000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>689000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6366,8 +6567,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6449,8 +6653,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6532,8 +6739,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6615,8 +6825,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6698,91 +6911,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3236000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-974000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2524000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1922000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1765000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-201000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2635000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1460000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1388000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>84000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1667000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1160000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3180000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1611000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2020000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1393000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3880000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2099000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3853000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3679000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>4526000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2237000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3512000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>4133000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>3253000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1445000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>3598000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6812,91 +7031,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1249000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1181000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1148000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1735000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1079000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-981000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1110000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-938000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-770000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-760000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-729000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-708000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1247000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1338000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1309000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1177000</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-1195000</v>
       </c>
       <c r="T91" s="3">
         <v>-1195000</v>
       </c>
       <c r="U91" s="3">
+        <v>-1195000</v>
+      </c>
+      <c r="V91" s="3">
         <v>-1201000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1220000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1063000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-981000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-895000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-805000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-1766000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-2080000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-2164000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6978,8 +7201,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7061,91 +7287,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1249000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1292000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1136000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1848000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1037000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-987000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1086000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-754000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-591000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-732000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-515000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-714000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1058000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1350000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>9667000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1102000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-11347000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1336000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-193000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1338000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2762000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1043000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-821000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-900000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1355000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1035000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-1532000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7175,8 +7407,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7220,11 +7453,11 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-1585000</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -7232,11 +7465,11 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-1249000</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
@@ -7244,11 +7477,11 @@
         <v>0</v>
       </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-1208000</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
         <v>0</v>
       </c>
@@ -7256,10 +7489,13 @@
         <v>0</v>
       </c>
       <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-1145000</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7341,8 +7577,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7424,8 +7663,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7507,253 +7749,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-83000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1043000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2482000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-150000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1817000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-292000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1614000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-530000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1908000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-333000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6439000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>8303000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>5499000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1117000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-13444000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-342000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>13107000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-411000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-3862000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2099000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2298000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-584000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-3167000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-2743000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-2062000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-987000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-2900000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E101" s="3">
         <v>164000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-249000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-238000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-81000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-35000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-47000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>7000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-69000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>139000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>87000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>27000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-117000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>41000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-145000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-28000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>119000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-44000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>26000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-106000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>34000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>21000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>54000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>46000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>43000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-112000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1937000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3145000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1343000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-314000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1170000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1515000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-112000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>183000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1180000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-842000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5200000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>8776000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>7504000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1419000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1902000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2865000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>5759000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>308000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-176000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>136000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-500000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>631000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-422000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>536000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-121000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-689000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-617000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DIS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DIS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>DIS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,372 +665,384 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E7" s="2">
         <v>45017</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44835</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44744</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44653</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44562</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44471</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44380</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44289</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44198</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44107</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44009</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43918</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43827</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43736</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43645</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43554</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43463</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43372</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43099</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42917</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42826</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>22330000</v>
+      </c>
+      <c r="E8" s="3">
         <v>21815000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>23512000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>20150000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>21504000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>19249000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>21819000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>18534000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>17022000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15613000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>16249000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14707000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11779000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>18025000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>20877000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>19137000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>20245000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>14922000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>15303000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>14307000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>15228000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>14548000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>15351000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>12779000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>14238000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>13336000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>14784000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>13142000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>14471000</v>
+      </c>
+      <c r="E9" s="3">
         <v>14616000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>16386000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>13558000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>13682000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>12594000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>14567000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12341000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11233000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9782000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11775000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11013000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7896000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11937000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>13034000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>11865000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>12819000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8376000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>9001000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8108000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>8348000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>7533000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>8737000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>7214000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>7717000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>6969000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>8406000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>7305000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7859000</v>
+      </c>
+      <c r="E10" s="3">
         <v>7199000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7126000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6592000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7822000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6655000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7252000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6193000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5789000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5831000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4474000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3694000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3883000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6088000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7843000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>7272000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>7426000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6546000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6302000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6199000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>6880000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>7015000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>6614000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>5565000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>6521000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>6367000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>6378000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>5837000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1061,8 +1073,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1147,8 +1160,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1233,83 +1249,86 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2650000</v>
+      </c>
+      <c r="E14" s="3">
         <v>152000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>69000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>42000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>195000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>92000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-91000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>414000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>113000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>393000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>5047000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>440000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>150000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>825000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>515000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-3948000</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>5000</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>13000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>15000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>98000</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
       <c r="AB14" s="3">
         <v>0</v>
       </c>
@@ -1317,96 +1336,102 @@
         <v>0</v>
       </c>
       <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1344000</v>
+      </c>
+      <c r="E15" s="3">
         <v>1310000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1306000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1317000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1290000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1287000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1269000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1275000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1266000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1272000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1298000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1335000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1377000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1334000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1299000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>1303000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>1304000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>828000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>732000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>794000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>744000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>731000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>742000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>708000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>711000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>676000</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>687000</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>689000</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1434,180 +1459,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>22440000</v>
+      </c>
+      <c r="E17" s="3">
         <v>19692000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>21560000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>19608000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>19114000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>17844000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>19627000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>17927000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15576000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14581000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>16103000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>15553000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>16775000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>16809000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>18192000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>17698000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>18000000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7583000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>11885000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>11229000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>11304000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>10524000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>11573000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>9993000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>10627000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>9586000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>11078000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>10312000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-110000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2123000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1952000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>542000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2390000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1405000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2192000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>607000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1446000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1032000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>146000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-846000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4996000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1216000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2685000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1439000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2245000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>7339000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3418000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3078000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3924000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>4024000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>3778000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2786000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>3611000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>3750000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>3706000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>2830000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1638,438 +1670,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>479000</v>
+      </c>
+      <c r="E20" s="3">
         <v>504000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>286000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>268000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>109000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>71000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-143000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>6000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-47000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>613000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>304000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>730000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>623000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>908000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>653000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>613000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>230000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>78000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>162000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>313000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>105000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>76000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>113000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>45000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>141000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>116000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>140000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1713000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3937000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3544000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2127000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3789000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2763000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3318000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1888000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2665000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2917000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1748000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1219000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2994000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3457000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4636000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3348000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3779000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>8245000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4312000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>4185000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>4773000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>4831000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>4633000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>3539000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>4463000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>4542000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>4533000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>3689000</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>503000</v>
+      </c>
+      <c r="E22" s="3">
         <v>504000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>465000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>434000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>380000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>374000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>361000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>323000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>404000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>415000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>404000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>464000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>467000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1073000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>712000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>815000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>457000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>180000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>149000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>189000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>175000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>172000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>146000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>137000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>134000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>115000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>121000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-134000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2123000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1773000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>376000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2119000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1102000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1688000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>290000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>995000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1230000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>46000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-580000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4840000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1051000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2626000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1237000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2018000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>7237000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3431000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3202000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3854000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3928000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>3745000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2694000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>3618000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>3751000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>3725000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>2881000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E24" s="3">
         <v>635000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>412000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>122000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>617000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>505000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>488000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>34000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-133000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>108000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>16000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>49000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-331000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>523000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>458000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>339000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>395000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1647000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>679000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>683000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>895000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>913000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>872000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>829000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1144000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>1212000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>1237000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>989000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2154,180 +2202,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-153000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1488000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1361000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>254000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1502000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>597000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1200000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>256000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1128000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1122000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>30000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-629000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4509000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>528000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2168000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>898000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1623000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>5590000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2752000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2519000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2959000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>3015000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2873000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1865000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>2474000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>2539000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>2488000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>1892000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-460000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1271000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1279000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>162000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1409000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>470000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1152000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>160000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>923000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>912000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>29000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-710000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4718000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>468000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2128000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>769000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1437000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>5431000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2754000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2422000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2816000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2837000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2823000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1747000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>2366000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>2388000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>2479000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2412,8 +2469,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2433,58 +2493,58 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-48000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-1000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-5000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-11000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-12000</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-3000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-21000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>285000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>323000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>21000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>34000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-100000</v>
-      </c>
-      <c r="W29" s="3">
-        <v>100000</v>
       </c>
       <c r="X29" s="3">
         <v>100000</v>
       </c>
       <c r="Y29" s="3">
+        <v>100000</v>
+      </c>
+      <c r="Z29" s="3">
         <v>1600000</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2498,8 +2558,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2584,8 +2647,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2670,180 +2736,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-479000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-504000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-286000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-268000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-109000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-71000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>143000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-6000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>47000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-613000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-304000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-730000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-623000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-908000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-653000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-613000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-230000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-78000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-162000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-313000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-105000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-76000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-113000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-45000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-141000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-116000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-140000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-170000</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-460000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1271000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1279000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>162000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1409000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>470000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1104000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>159000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>918000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>901000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>17000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-710000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4721000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>460000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2107000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1054000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1760000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>5452000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2788000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2322000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2916000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2937000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>4423000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1747000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>2366000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>2388000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>2479000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2928,185 +3003,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-460000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1271000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1279000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>162000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1409000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>470000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1104000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>159000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>918000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>901000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>17000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-710000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4721000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>460000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2107000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1054000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1760000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>5452000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2788000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2322000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2916000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2937000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>4423000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1747000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>2366000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>2388000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>2479000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E38" s="2">
         <v>45017</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44835</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44744</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44653</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44562</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44471</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44380</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44289</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44198</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44107</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44009</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43918</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43827</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43736</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43645</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43554</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43463</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43372</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43099</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42917</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42826</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3137,8 +3221,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3169,94 +3254,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11458000</v>
+      </c>
+      <c r="E41" s="3">
         <v>10399000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8470000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11615000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>12959000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13272000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>14444000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15959000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>16070000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15890000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>17068000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>17914000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>23115000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>14339000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6833000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5418000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6728000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>10208000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4455000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4150000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4326000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4179000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4677000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4017000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4336000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>3800000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>3736000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>4610000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3341,610 +3430,634 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13112000</v>
+      </c>
+      <c r="E43" s="3">
         <v>12770000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>13993000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12652000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>13685000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>13746000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>14882000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>13367000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>13355000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>12533000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>14051000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>12708000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>12622000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>14532000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>17100000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>15481000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>15673000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>14593000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>10123000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>9334000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>10071000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>9678000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>9886000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>8633000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>9636000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>9293000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>9878000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>9065000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1900000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1848000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1830000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1742000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1590000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1428000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1345000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1331000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1344000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1406000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1480000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1583000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1559000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1531000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1571000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1649000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1516000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1445000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1357000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1392000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1322000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1301000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1307000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1373000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1300000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1304000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1299000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>1390000</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3704000</v>
+      </c>
+      <c r="E45" s="3">
         <v>3246000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2619000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3089000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3188000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2981000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2242000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3000000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3197000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3048000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2275000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3046000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4034000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2872000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2272000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5576000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>7453000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>8031000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1602000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1949000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2010000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1650000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1404000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1866000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1879000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1873000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1752000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>1901000</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>30174000</v>
+      </c>
+      <c r="E46" s="3">
         <v>28263000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>26912000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>29098000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>31422000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>31427000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>32913000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>33657000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>33966000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>32877000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>34874000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>35251000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>41330000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>33274000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>27776000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>28124000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>31370000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>34277000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>17537000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>16825000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>17729000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>16808000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>17274000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>15889000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>17151000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>16270000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>16665000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>16966000</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3062000</v>
+      </c>
+      <c r="E47" s="3">
         <v>3387000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3169000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3218000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3236000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3356000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3549000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3935000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4045000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4309000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4037000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3903000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3611000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3180000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3312000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3224000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3872000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>4080000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2970000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2899000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>3155000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>3148000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>3206000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>3202000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>4141000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>4187000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>4259000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>4280000</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>34577000</v>
+      </c>
+      <c r="E48" s="3">
         <v>34579000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>34200000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>37865000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>33583000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>32917000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>32681000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>36855000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>32377000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>32137000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>32263000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>36126000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>36137000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>36715000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>35503000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>31603000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>31392000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>31017000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>29797000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>29540000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>29373000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>29200000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>28584000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>28406000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>27733000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>27399000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>27054000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>27349000</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>125966000</v>
+      </c>
+      <c r="E49" s="3">
         <v>128714000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>128480000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>128511000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>127356000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>126243000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>125295000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>124735000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>123325000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>122842000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>122371000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>121884000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>122382000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>129114000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>129522000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>126318000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>125467000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>126395000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>46213000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>45969000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>45882000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>46386000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>46297000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>45902000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>41430000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>41650000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>41257000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>41098000</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4029,8 +4142,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4115,94 +4231,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10004000</v>
+      </c>
+      <c r="E52" s="3">
         <v>9915000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9363000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4939000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8477000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8510000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8873000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4427000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8508000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8085000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8343000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4385000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4189000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4011000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4835000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4715000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>17374000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>18573000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3424000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3365000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2653000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2401000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2373000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2390000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>2297000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>2301000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>2341000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>2340000</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4287,94 +4409,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>203783000</v>
+      </c>
+      <c r="E54" s="3">
         <v>204858000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>202124000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>203631000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>204074000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>202453000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>203311000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>203609000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>202221000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>200250000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>201888000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>201549000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>207649000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>206294000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>200948000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>193984000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>209475000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>214342000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>99941000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>98598000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>98792000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>97943000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>97734000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>95789000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>92752000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>91807000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>91576000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>92033000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4405,8 +4533,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4437,524 +4566,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>19115000</v>
+      </c>
+      <c r="E57" s="3">
         <v>18591000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>18149000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>20213000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>20858000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>19669000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>18709000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>20894000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>18317000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>17062000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>16846000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>16017000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>16144000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>17048000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>18920000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>17762000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>17647000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>20503000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>10696000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>9479000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>9763000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>9022000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>9574000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>6490000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>8987000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>7678000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>9616000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>6860000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2645000</v>
+      </c>
+      <c r="E58" s="3">
         <v>3452000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3249000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3070000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5580000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5399000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6783000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5866000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4728000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5243000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5397000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5748000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>10262000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>12712000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>10047000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>8857000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>21923000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>19158000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3489000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3790000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>5992000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>5918000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>6009000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>6172000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>3338000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>4865000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>5698000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>3687000</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6474000</v>
+      </c>
+      <c r="E59" s="3">
         <v>6013000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5672000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5790000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4266000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4533000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4545000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4317000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4368000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4337000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4303000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4863000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4511000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5713000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5830000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4722000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5023000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4715000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3434000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4591000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4459000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4788000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4292000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>6933000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>4769000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>4822000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>4003000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>6295000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>28234000</v>
+      </c>
+      <c r="E60" s="3">
         <v>28056000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>27070000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>29073000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>30704000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>29601000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>30037000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>31077000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>27413000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>26642000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>26546000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>26628000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>30917000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>35473000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>34797000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>31341000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>44593000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>44376000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>17619000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>17860000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>20214000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>19728000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>19875000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>19595000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>17094000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>17365000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>19317000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>16842000</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>44544000</v>
+      </c>
+      <c r="E61" s="3">
         <v>45066000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>45128000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>45299000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>46022000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>46624000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>47349000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>48540000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>51110000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>50903000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>52878000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>53188000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>54468000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>43052000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>38309000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>38129000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>36311000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>37803000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>17176000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>17084000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>17681000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>18766000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>20082000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>19119000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>18849000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>16788000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>14792000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>16483000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>20063000</v>
+      </c>
+      <c r="E62" s="3">
         <v>21366000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>21048000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>20881000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>21490000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>22215000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>22332000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>21768000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>23084000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>23509000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>24406000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>24221000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>22639000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>23796000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>24040000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>21662000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>23318000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>26721000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9629000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>9699000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>9689000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>9648000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>9552000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>10923000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>10758000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>10387000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>10290000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>11385000</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5039,8 +5187,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5125,8 +5276,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5211,94 +5365,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>106173000</v>
+      </c>
+      <c r="E66" s="3">
         <v>106999000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>105975000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>108623000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>111574000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>111817000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>113447000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>115056000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>115480000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>114710000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>117817000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>117966000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>121783000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>115887000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>111191000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>105107000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>119003000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>124404000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>49625000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>49825000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>52704000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>52792000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>54445000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>54474000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>50221000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>48023000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>48366000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>48768000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5329,8 +5489,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5415,8 +5576,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5501,8 +5665,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5587,8 +5754,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5673,94 +5843,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>45794000</v>
+      </c>
+      <c r="E72" s="3">
         <v>46236000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>44955000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>43636000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>43462000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>42032000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>41547000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>40429000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>40311000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>39365000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>38456000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>38315000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>39004000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>43721000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>43202000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>42494000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>41382000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>41212000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>84887000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>82679000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>80364000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>78704000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>75763000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>72606000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>70863000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>69708000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>67327000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>66088000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5845,8 +6021,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5931,8 +6110,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6017,94 +6199,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>97610000</v>
+      </c>
+      <c r="E76" s="3">
         <v>97859000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>96149000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>95008000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>92500000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>90636000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>89864000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>88553000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>86741000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>85540000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>84071000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>83583000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>85866000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>90407000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>89757000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>88877000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>90472000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>89938000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>50316000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>48773000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>46088000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>45151000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>43289000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>41315000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>42531000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>43784000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>43210000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>43265000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6189,185 +6377,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E80" s="2">
         <v>45017</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44835</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44744</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44653</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44562</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44471</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44380</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44289</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44198</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44107</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44009</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43918</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43827</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43736</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43645</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43554</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43463</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43372</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43099</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42917</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42826</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-460000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1271000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1279000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>162000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1409000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>470000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1104000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>159000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>918000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>901000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>17000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-710000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4721000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>460000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2107000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1054000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1760000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>5452000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2788000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2322000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2916000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2937000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>4423000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1747000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>2366000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>2388000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>2479000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>1771000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6398,94 +6595,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1344000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1310000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1306000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1317000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1290000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1287000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1269000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1275000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1266000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1272000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1298000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1335000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1379000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1333000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1298000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1296000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1304000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>828000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>732000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>794000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>744000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>731000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>742000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>708000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>711000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>676000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>687000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>689000</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6570,8 +6771,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6656,8 +6860,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6742,8 +6949,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6828,8 +7038,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6914,94 +7127,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2802000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3236000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-974000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2524000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1922000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1765000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-201000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2635000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1460000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1388000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>84000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1667000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1160000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3180000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1611000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2020000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1393000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3880000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2099000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3853000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3679000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>4526000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2237000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>3512000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>4133000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>3253000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1445000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>3598000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7032,94 +7251,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1165000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1249000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1181000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1148000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1735000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1079000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-981000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1110000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-938000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-770000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-760000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-729000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-708000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1247000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1338000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1309000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1177000</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-1195000</v>
       </c>
       <c r="U91" s="3">
         <v>-1195000</v>
       </c>
       <c r="V91" s="3">
+        <v>-1195000</v>
+      </c>
+      <c r="W91" s="3">
         <v>-1201000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1220000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1063000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-981000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-895000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-805000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-1766000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-2080000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-2164000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7204,8 +7427,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7290,94 +7516,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-718000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1249000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1292000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1136000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1848000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1037000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-987000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1086000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-754000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-591000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-732000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-515000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-714000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1058000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1350000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>9667000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1102000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-11347000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1336000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-193000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1338000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2762000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1043000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-821000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-900000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1355000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-1035000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-1532000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7408,8 +7640,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7456,11 +7689,11 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-1585000</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
@@ -7468,11 +7701,11 @@
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-1249000</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
@@ -7480,11 +7713,11 @@
         <v>0</v>
       </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-1208000</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
         <v>0</v>
       </c>
@@ -7492,10 +7725,13 @@
         <v>0</v>
       </c>
       <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-1145000</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7580,8 +7816,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7666,8 +7905,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7752,262 +7994,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1001000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-83000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1043000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2482000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-150000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1817000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-292000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1614000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-530000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1908000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-333000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6439000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>8303000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>5499000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1117000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-13444000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-342000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>13107000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-411000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-3862000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2099000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2298000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-584000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-3167000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-2743000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-2062000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-987000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-2900000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E101" s="3">
         <v>33000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>164000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-249000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-238000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-81000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-35000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-47000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>7000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-69000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>139000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>87000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>27000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-117000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>41000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-145000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-28000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>119000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-44000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>26000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-106000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>34000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>21000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>54000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>46000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>43000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-112000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1060000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1937000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3145000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1343000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-314000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1170000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1515000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-112000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>183000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1180000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-842000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5200000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>8776000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>7504000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1419000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1902000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2865000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>5759000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>308000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-176000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>136000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-500000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>631000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-422000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>536000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-121000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-689000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-617000</v>
       </c>
     </row>
